--- a/source-data/britain/britain_covid_source_latest.xlsx
+++ b/source-data/britain/britain_covid_source_latest.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-mortality-tracker/source-data/britain/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A66A20-F238-B44E-BE8E-5874D8790E82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="4640" windowWidth="27760" windowHeight="15020" tabRatio="500"/>
+    <workbookView xWindow="1740" yWindow="660" windowWidth="27760" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="britain_covid_source_latest" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -128,6 +129,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -395,11 +399,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="P274" sqref="P274"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="J274" sqref="J274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15162,7 +15166,7 @@
         <v>0</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R280" si="4">SUM(E259,P259:Q259)</f>
+        <f t="shared" ref="R259:R281" si="4">SUM(E259,P259:Q259)</f>
         <v>0</v>
       </c>
     </row>
@@ -16296,14 +16300,14 @@
         <v>413</v>
       </c>
       <c r="P279">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Q279">
         <v>128</v>
       </c>
       <c r="R279">
         <f t="shared" si="4"/>
-        <v>9023</v>
+        <v>9024</v>
       </c>
     </row>
     <row r="280" spans="1:18" x14ac:dyDescent="0.2">
@@ -16353,14 +16357,14 @@
         <v>281</v>
       </c>
       <c r="P280">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="Q280">
         <v>124</v>
       </c>
       <c r="R280">
         <f t="shared" si="4"/>
-        <v>6682</v>
+        <v>6684</v>
       </c>
     </row>
     <row r="281" spans="1:18" x14ac:dyDescent="0.2">
@@ -16375,6 +16379,49 @@
       </c>
       <c r="D281">
         <v>19</v>
+      </c>
+      <c r="E281">
+        <v>3930</v>
+      </c>
+      <c r="F281">
+        <v>271</v>
+      </c>
+      <c r="G281">
+        <v>597</v>
+      </c>
+      <c r="H281">
+        <v>432</v>
+      </c>
+      <c r="I281">
+        <v>334</v>
+      </c>
+      <c r="J281">
+        <v>443</v>
+      </c>
+      <c r="K281">
+        <v>373</v>
+      </c>
+      <c r="L281">
+        <v>439</v>
+      </c>
+      <c r="M281">
+        <v>551</v>
+      </c>
+      <c r="N281">
+        <v>276</v>
+      </c>
+      <c r="O281">
+        <v>211</v>
+      </c>
+      <c r="P281">
+        <v>415</v>
+      </c>
+      <c r="Q281">
+        <v>84</v>
+      </c>
+      <c r="R281">
+        <f t="shared" si="4"/>
+        <v>4429</v>
       </c>
     </row>
     <row r="282" spans="1:18" x14ac:dyDescent="0.2">

--- a/source-data/britain/britain_covid_source_latest.xlsx
+++ b/source-data/britain/britain_covid_source_latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A66A20-F238-B44E-BE8E-5874D8790E82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1957D042-A241-E34E-9C07-1C945C898B92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="660" windowWidth="27760" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9080" yWindow="660" windowWidth="19720" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="britain_covid_source_latest" sheetId="1" r:id="rId1"/>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="J274" sqref="J274"/>
+    <sheetView tabSelected="1" topLeftCell="G273" workbookViewId="0">
+      <selection activeCell="M278" sqref="M278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15166,7 +15166,7 @@
         <v>0</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R281" si="4">SUM(E259,P259:Q259)</f>
+        <f t="shared" ref="R259:R282" si="4">SUM(E259,P259:Q259)</f>
         <v>0</v>
       </c>
     </row>
@@ -16357,14 +16357,14 @@
         <v>281</v>
       </c>
       <c r="P280">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Q280">
         <v>124</v>
       </c>
       <c r="R280">
         <f t="shared" si="4"/>
-        <v>6684</v>
+        <v>6685</v>
       </c>
     </row>
     <row r="281" spans="1:18" x14ac:dyDescent="0.2">
@@ -16436,6 +16436,49 @@
       </c>
       <c r="D282">
         <v>20</v>
+      </c>
+      <c r="E282">
+        <v>3810</v>
+      </c>
+      <c r="F282">
+        <v>248</v>
+      </c>
+      <c r="G282">
+        <v>620</v>
+      </c>
+      <c r="H282">
+        <v>452</v>
+      </c>
+      <c r="I282">
+        <v>319</v>
+      </c>
+      <c r="J282">
+        <v>382</v>
+      </c>
+      <c r="K282">
+        <v>401</v>
+      </c>
+      <c r="L282">
+        <v>365</v>
+      </c>
+      <c r="M282">
+        <v>598</v>
+      </c>
+      <c r="N282">
+        <v>239</v>
+      </c>
+      <c r="O282">
+        <v>180</v>
+      </c>
+      <c r="P282">
+        <v>332</v>
+      </c>
+      <c r="Q282">
+        <v>74</v>
+      </c>
+      <c r="R282">
+        <f t="shared" si="4"/>
+        <v>4216</v>
       </c>
     </row>
     <row r="283" spans="1:18" x14ac:dyDescent="0.2">

--- a/source-data/britain/britain_covid_source_latest.xlsx
+++ b/source-data/britain/britain_covid_source_latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1957D042-A241-E34E-9C07-1C945C898B92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925B2B06-6778-A941-A8C0-F83AA0787391}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9080" yWindow="660" windowWidth="19720" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -402,13 +402,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G273" workbookViewId="0">
-      <selection activeCell="M278" sqref="M278"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N275" sqref="N275"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18">
       <c r="A92" t="s">
         <v>17</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18">
       <c r="A99" t="s">
         <v>17</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18">
       <c r="A154" t="s">
         <v>17</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18">
       <c r="A160" t="s">
         <v>17</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18">
       <c r="A161" t="s">
         <v>17</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18">
       <c r="A163" t="s">
         <v>17</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18">
       <c r="A165" t="s">
         <v>17</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18">
       <c r="A169" t="s">
         <v>17</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18">
       <c r="A171" t="s">
         <v>17</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18">
       <c r="A172" t="s">
         <v>17</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18">
       <c r="A173" t="s">
         <v>17</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18">
       <c r="A174" t="s">
         <v>17</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18">
       <c r="A175" t="s">
         <v>17</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18">
       <c r="A176" t="s">
         <v>17</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18">
       <c r="A178" t="s">
         <v>17</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18">
       <c r="A179" t="s">
         <v>17</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18">
       <c r="A182" t="s">
         <v>17</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18">
       <c r="A183" t="s">
         <v>17</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18">
       <c r="A184" t="s">
         <v>17</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18">
       <c r="A187" t="s">
         <v>17</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18">
       <c r="A188" t="s">
         <v>17</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18">
       <c r="A189" t="s">
         <v>17</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18">
       <c r="A190" t="s">
         <v>17</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18">
       <c r="A191" t="s">
         <v>17</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18">
       <c r="A192" t="s">
         <v>17</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18">
       <c r="A194" t="s">
         <v>17</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18">
       <c r="A195" t="s">
         <v>17</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18">
       <c r="A196" t="s">
         <v>17</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18">
       <c r="A197" t="s">
         <v>17</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18">
       <c r="A198" t="s">
         <v>17</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18">
       <c r="A199" t="s">
         <v>17</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18">
       <c r="A200" t="s">
         <v>17</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18">
       <c r="A201" t="s">
         <v>17</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18">
       <c r="A202" t="s">
         <v>17</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18">
       <c r="A203" t="s">
         <v>17</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18">
       <c r="A204" t="s">
         <v>17</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18">
       <c r="A205" t="s">
         <v>17</v>
       </c>
@@ -12092,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18">
       <c r="A206" t="s">
         <v>17</v>
       </c>
@@ -12149,7 +12149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18">
       <c r="A207" t="s">
         <v>17</v>
       </c>
@@ -12206,7 +12206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18">
       <c r="A208" t="s">
         <v>17</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18">
       <c r="A209" t="s">
         <v>17</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18">
       <c r="A210" t="s">
         <v>17</v>
       </c>
@@ -12377,7 +12377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18">
       <c r="A211" t="s">
         <v>17</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18">
       <c r="A212" t="s">
         <v>17</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18">
       <c r="A213" t="s">
         <v>17</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18">
       <c r="A214" t="s">
         <v>17</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18">
       <c r="A215" t="s">
         <v>17</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18">
       <c r="A216" t="s">
         <v>17</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18">
       <c r="A217" t="s">
         <v>17</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18">
       <c r="A218" t="s">
         <v>17</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18">
       <c r="A219" t="s">
         <v>17</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18">
       <c r="A220" t="s">
         <v>17</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:18">
       <c r="A223" t="s">
         <v>17</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18">
       <c r="A224" t="s">
         <v>17</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18">
       <c r="A226" t="s">
         <v>17</v>
       </c>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -13346,7 +13346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18">
       <c r="A228" t="s">
         <v>17</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18">
       <c r="A229" t="s">
         <v>17</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18">
       <c r="A230" t="s">
         <v>17</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:18">
       <c r="A231" t="s">
         <v>17</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18">
       <c r="A232" t="s">
         <v>17</v>
       </c>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18">
       <c r="A233" t="s">
         <v>17</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18">
       <c r="A234" t="s">
         <v>17</v>
       </c>
@@ -13745,7 +13745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18">
       <c r="A235" t="s">
         <v>17</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18">
       <c r="A236" t="s">
         <v>17</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18">
       <c r="A239" t="s">
         <v>17</v>
       </c>
@@ -14030,7 +14030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18">
       <c r="A240" t="s">
         <v>17</v>
       </c>
@@ -14087,7 +14087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:18">
       <c r="A243" t="s">
         <v>17</v>
       </c>
@@ -14258,7 +14258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:18">
       <c r="A244" t="s">
         <v>17</v>
       </c>
@@ -14315,7 +14315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -14372,7 +14372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:18">
       <c r="A247" t="s">
         <v>17</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:18">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:18">
       <c r="A249" t="s">
         <v>17</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:18">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:18">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -14714,7 +14714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:18">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:18">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:18">
       <c r="A254" t="s">
         <v>17</v>
       </c>
@@ -14885,7 +14885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:18">
       <c r="A255" t="s">
         <v>17</v>
       </c>
@@ -14942,7 +14942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:18">
       <c r="A256" t="s">
         <v>17</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:18">
       <c r="A257" t="s">
         <v>17</v>
       </c>
@@ -15056,7 +15056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:18">
       <c r="A258" t="s">
         <v>17</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:18">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -15166,11 +15166,11 @@
         <v>0</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R282" si="4">SUM(E259,P259:Q259)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" ref="R259:R284" si="4">SUM(E259,P259:Q259)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18">
       <c r="A260" t="s">
         <v>17</v>
       </c>
@@ -15227,7 +15227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:18">
       <c r="A261" t="s">
         <v>17</v>
       </c>
@@ -15284,7 +15284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:18">
       <c r="A262" t="s">
         <v>17</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:18">
       <c r="A263" t="s">
         <v>17</v>
       </c>
@@ -15398,7 +15398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:18">
       <c r="A264" t="s">
         <v>17</v>
       </c>
@@ -15455,7 +15455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:18">
       <c r="A265" t="s">
         <v>17</v>
       </c>
@@ -15512,7 +15512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:18">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:18">
       <c r="A267" t="s">
         <v>17</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:18">
       <c r="A268" t="s">
         <v>17</v>
       </c>
@@ -15683,7 +15683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:18">
       <c r="A269" t="s">
         <v>17</v>
       </c>
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:18">
       <c r="A270" t="s">
         <v>17</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:18">
       <c r="A271" t="s">
         <v>17</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:18">
       <c r="A272" t="s">
         <v>17</v>
       </c>
@@ -15911,7 +15911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:18">
       <c r="A273" t="s">
         <v>17</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:18">
       <c r="A274" t="s">
         <v>17</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:18">
       <c r="A275" t="s">
         <v>17</v>
       </c>
@@ -16082,7 +16082,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:18">
       <c r="A276" t="s">
         <v>17</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>3812</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:18">
       <c r="A277" t="s">
         <v>17</v>
       </c>
@@ -16196,7 +16196,7 @@
         <v>6899</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:18">
       <c r="A278" t="s">
         <v>17</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>9509</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:18">
       <c r="A279" t="s">
         <v>17</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>9024</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:18">
       <c r="A280" t="s">
         <v>17</v>
       </c>
@@ -16367,7 +16367,7 @@
         <v>6685</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:18">
       <c r="A281" t="s">
         <v>17</v>
       </c>
@@ -16424,7 +16424,7 @@
         <v>4429</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:18">
       <c r="A282" t="s">
         <v>17</v>
       </c>
@@ -16471,17 +16471,17 @@
         <v>180</v>
       </c>
       <c r="P282">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q282">
         <v>74</v>
       </c>
       <c r="R282">
         <f t="shared" si="4"/>
-        <v>4216</v>
-      </c>
-    </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18">
       <c r="A283" t="s">
         <v>17</v>
       </c>
@@ -16494,8 +16494,51 @@
       <c r="D283">
         <v>21</v>
       </c>
-    </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E283">
+        <v>2589</v>
+      </c>
+      <c r="F283">
+        <v>202</v>
+      </c>
+      <c r="G283">
+        <v>394</v>
+      </c>
+      <c r="H283">
+        <v>297</v>
+      </c>
+      <c r="I283">
+        <v>222</v>
+      </c>
+      <c r="J283">
+        <v>290</v>
+      </c>
+      <c r="K283">
+        <v>295</v>
+      </c>
+      <c r="L283">
+        <v>220</v>
+      </c>
+      <c r="M283">
+        <v>409</v>
+      </c>
+      <c r="N283">
+        <v>126</v>
+      </c>
+      <c r="O283">
+        <v>134</v>
+      </c>
+      <c r="P283">
+        <v>230</v>
+      </c>
+      <c r="Q283">
+        <v>53</v>
+      </c>
+      <c r="R283">
+        <f t="shared" si="4"/>
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18">
       <c r="A284" t="s">
         <v>17</v>
       </c>
@@ -16508,8 +16551,51 @@
       <c r="D284">
         <v>22</v>
       </c>
-    </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E284">
+        <v>1822</v>
+      </c>
+      <c r="F284">
+        <v>141</v>
+      </c>
+      <c r="G284">
+        <v>282</v>
+      </c>
+      <c r="H284">
+        <v>237</v>
+      </c>
+      <c r="I284">
+        <v>180</v>
+      </c>
+      <c r="J284">
+        <v>184</v>
+      </c>
+      <c r="K284">
+        <v>204</v>
+      </c>
+      <c r="L284">
+        <v>115</v>
+      </c>
+      <c r="M284">
+        <v>269</v>
+      </c>
+      <c r="N284">
+        <v>103</v>
+      </c>
+      <c r="O284">
+        <v>105</v>
+      </c>
+      <c r="P284">
+        <v>131</v>
+      </c>
+      <c r="Q284">
+        <v>49</v>
+      </c>
+      <c r="R284">
+        <f t="shared" si="4"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18">
       <c r="A285" t="s">
         <v>17</v>
       </c>
@@ -16523,7 +16609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:18">
       <c r="A286" t="s">
         <v>17</v>
       </c>
@@ -16537,7 +16623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:18">
       <c r="A287" t="s">
         <v>17</v>
       </c>
@@ -16551,7 +16637,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:18">
       <c r="A288" t="s">
         <v>17</v>
       </c>
@@ -16565,7 +16651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>17</v>
       </c>
@@ -16579,7 +16665,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>17</v>
       </c>
@@ -16593,7 +16679,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>17</v>
       </c>
@@ -16607,7 +16693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>17</v>
       </c>
@@ -16621,7 +16707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>17</v>
       </c>
@@ -16635,7 +16721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -16649,7 +16735,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>17</v>
       </c>
@@ -16663,7 +16749,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -16677,7 +16763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>17</v>
       </c>
@@ -16691,7 +16777,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>17</v>
       </c>
@@ -16705,7 +16791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>17</v>
       </c>
@@ -16719,7 +16805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>17</v>
       </c>
@@ -16733,7 +16819,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>17</v>
       </c>
@@ -16747,7 +16833,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>17</v>
       </c>
@@ -16761,7 +16847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>17</v>
       </c>
@@ -16775,7 +16861,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>17</v>
       </c>
@@ -16789,7 +16875,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>17</v>
       </c>
@@ -16803,7 +16889,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>17</v>
       </c>
@@ -16817,7 +16903,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>17</v>
       </c>
@@ -16831,7 +16917,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>17</v>
       </c>
@@ -16845,7 +16931,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>17</v>
       </c>
@@ -16859,7 +16945,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>17</v>
       </c>
@@ -16873,7 +16959,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>17</v>
       </c>
@@ -16887,7 +16973,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>17</v>
       </c>
@@ -16901,7 +16987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>17</v>
       </c>
@@ -16915,7 +17001,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>17</v>
       </c>
@@ -16929,7 +17015,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>17</v>
       </c>

--- a/source-data/britain/britain_covid_source_latest.xlsx
+++ b/source-data/britain/britain_covid_source_latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925B2B06-6778-A941-A8C0-F83AA0787391}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E576BF5F-C276-794E-87EC-381816FAD066}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9080" yWindow="660" windowWidth="19720" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19720" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="britain_covid_source_latest" sheetId="1" r:id="rId1"/>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N275" sqref="N275"/>
+    <sheetView tabSelected="1" topLeftCell="F268" workbookViewId="0">
+      <selection activeCell="O278" sqref="O278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15166,7 +15166,7 @@
         <v>0</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R284" si="4">SUM(E259,P259:Q259)</f>
+        <f t="shared" ref="R259:R285" si="4">SUM(E259,P259:Q259)</f>
         <v>0</v>
       </c>
     </row>
@@ -16607,6 +16607,49 @@
       </c>
       <c r="D285">
         <v>23</v>
+      </c>
+      <c r="E285">
+        <v>1588</v>
+      </c>
+      <c r="F285">
+        <v>113</v>
+      </c>
+      <c r="G285">
+        <v>250</v>
+      </c>
+      <c r="H285">
+        <v>210</v>
+      </c>
+      <c r="I285">
+        <v>152</v>
+      </c>
+      <c r="J285">
+        <v>158</v>
+      </c>
+      <c r="K285">
+        <v>188</v>
+      </c>
+      <c r="L285">
+        <v>113</v>
+      </c>
+      <c r="M285">
+        <v>219</v>
+      </c>
+      <c r="N285">
+        <v>85</v>
+      </c>
+      <c r="O285">
+        <v>100</v>
+      </c>
+      <c r="P285">
+        <v>89</v>
+      </c>
+      <c r="Q285">
+        <v>20</v>
+      </c>
+      <c r="R285">
+        <f t="shared" si="4"/>
+        <v>1697</v>
       </c>
     </row>
     <row r="286" spans="1:18">

--- a/source-data/britain/britain_covid_source_latest.xlsx
+++ b/source-data/britain/britain_covid_source_latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E576BF5F-C276-794E-87EC-381816FAD066}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE498A0E-20D8-544B-AF3F-0502AFC91764}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19720" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="460" windowWidth="19720" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="britain_covid_source_latest" sheetId="1" r:id="rId1"/>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F268" workbookViewId="0">
-      <selection activeCell="O278" sqref="O278"/>
+    <sheetView tabSelected="1" topLeftCell="G269" workbookViewId="0">
+      <selection activeCell="P276" sqref="P276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15166,7 +15166,7 @@
         <v>0</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R285" si="4">SUM(E259,P259:Q259)</f>
+        <f t="shared" ref="R259:R286" si="4">SUM(E259,P259:Q259)</f>
         <v>0</v>
       </c>
     </row>
@@ -16664,6 +16664,49 @@
       </c>
       <c r="D286">
         <v>24</v>
+      </c>
+      <c r="E286">
+        <v>1114</v>
+      </c>
+      <c r="F286">
+        <v>71</v>
+      </c>
+      <c r="G286">
+        <v>196</v>
+      </c>
+      <c r="H286">
+        <v>136</v>
+      </c>
+      <c r="I286">
+        <v>135</v>
+      </c>
+      <c r="J286">
+        <v>104</v>
+      </c>
+      <c r="K286">
+        <v>122</v>
+      </c>
+      <c r="L286">
+        <v>71</v>
+      </c>
+      <c r="M286">
+        <v>174</v>
+      </c>
+      <c r="N286">
+        <v>48</v>
+      </c>
+      <c r="O286">
+        <v>57</v>
+      </c>
+      <c r="P286">
+        <v>49</v>
+      </c>
+      <c r="Q286">
+        <v>21</v>
+      </c>
+      <c r="R286">
+        <f t="shared" si="4"/>
+        <v>1184</v>
       </c>
     </row>
     <row r="287" spans="1:18">

--- a/source-data/britain/britain_covid_source_latest.xlsx
+++ b/source-data/britain/britain_covid_source_latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE498A0E-20D8-544B-AF3F-0502AFC91764}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA997F44-7733-5C47-8E5C-72C32714A33D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="460" windowWidth="19720" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7340" yWindow="900" windowWidth="19720" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="britain_covid_source_latest" sheetId="1" r:id="rId1"/>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G269" workbookViewId="0">
-      <selection activeCell="P276" sqref="P276"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="P280" sqref="P280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15166,7 +15166,7 @@
         <v>0</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R286" si="4">SUM(E259,P259:Q259)</f>
+        <f t="shared" ref="R259:R288" si="4">SUM(E259,P259:Q259)</f>
         <v>0</v>
       </c>
     </row>
@@ -16699,14 +16699,14 @@
         <v>57</v>
       </c>
       <c r="P286">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="Q286">
         <v>21</v>
       </c>
       <c r="R286">
         <f t="shared" si="4"/>
-        <v>1184</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -16722,6 +16722,49 @@
       <c r="D287">
         <v>25</v>
       </c>
+      <c r="E287">
+        <v>783</v>
+      </c>
+      <c r="F287">
+        <v>30</v>
+      </c>
+      <c r="G287">
+        <v>134</v>
+      </c>
+      <c r="H287">
+        <v>111</v>
+      </c>
+      <c r="I287">
+        <v>96</v>
+      </c>
+      <c r="J287">
+        <v>93</v>
+      </c>
+      <c r="K287">
+        <v>77</v>
+      </c>
+      <c r="L287">
+        <v>50</v>
+      </c>
+      <c r="M287">
+        <v>117</v>
+      </c>
+      <c r="N287">
+        <v>36</v>
+      </c>
+      <c r="O287">
+        <v>39</v>
+      </c>
+      <c r="P287">
+        <v>49</v>
+      </c>
+      <c r="Q287">
+        <v>17</v>
+      </c>
+      <c r="R287">
+        <f t="shared" si="4"/>
+        <v>849</v>
+      </c>
     </row>
     <row r="288" spans="1:18">
       <c r="A288" t="s">
@@ -16735,6 +16778,49 @@
       </c>
       <c r="D288">
         <v>26</v>
+      </c>
+      <c r="E288">
+        <v>606</v>
+      </c>
+      <c r="F288">
+        <v>32</v>
+      </c>
+      <c r="G288">
+        <v>120</v>
+      </c>
+      <c r="H288">
+        <v>69</v>
+      </c>
+      <c r="I288">
+        <v>89</v>
+      </c>
+      <c r="J288">
+        <v>69</v>
+      </c>
+      <c r="K288">
+        <v>59</v>
+      </c>
+      <c r="L288">
+        <v>35</v>
+      </c>
+      <c r="M288">
+        <v>85</v>
+      </c>
+      <c r="N288">
+        <v>16</v>
+      </c>
+      <c r="O288">
+        <v>30</v>
+      </c>
+      <c r="P288">
+        <v>35</v>
+      </c>
+      <c r="Q288">
+        <v>12</v>
+      </c>
+      <c r="R288">
+        <f t="shared" si="4"/>
+        <v>653</v>
       </c>
     </row>
     <row r="289" spans="1:4">

--- a/source-data/britain/britain_covid_source_latest.xlsx
+++ b/source-data/britain/britain_covid_source_latest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA997F44-7733-5C47-8E5C-72C32714A33D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D6C3A9-A045-574D-969F-EE67C421DA80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7340" yWindow="900" windowWidth="19720" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="P280" sqref="P280"/>
+    <sheetView tabSelected="1" topLeftCell="H270" workbookViewId="0">
+      <selection activeCell="N281" sqref="N281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15166,7 +15166,7 @@
         <v>0</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R288" si="4">SUM(E259,P259:Q259)</f>
+        <f t="shared" ref="R259:R292" si="4">SUM(E259,P259:Q259)</f>
         <v>0</v>
       </c>
     </row>
@@ -16823,7 +16823,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:18">
       <c r="A289" t="s">
         <v>17</v>
       </c>
@@ -16836,8 +16836,51 @@
       <c r="D289">
         <v>27</v>
       </c>
-    </row>
-    <row r="290" spans="1:4">
+      <c r="E289">
+        <v>532</v>
+      </c>
+      <c r="F289">
+        <v>28</v>
+      </c>
+      <c r="G289">
+        <v>100</v>
+      </c>
+      <c r="H289">
+        <v>58</v>
+      </c>
+      <c r="I289">
+        <v>62</v>
+      </c>
+      <c r="J289">
+        <v>49</v>
+      </c>
+      <c r="K289">
+        <v>67</v>
+      </c>
+      <c r="L289">
+        <v>43</v>
+      </c>
+      <c r="M289">
+        <v>73</v>
+      </c>
+      <c r="N289">
+        <v>17</v>
+      </c>
+      <c r="O289">
+        <v>35</v>
+      </c>
+      <c r="P289">
+        <v>18</v>
+      </c>
+      <c r="Q289">
+        <v>11</v>
+      </c>
+      <c r="R289">
+        <f t="shared" si="4"/>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18">
       <c r="A290" t="s">
         <v>17</v>
       </c>
@@ -16850,8 +16893,51 @@
       <c r="D290">
         <v>28</v>
       </c>
-    </row>
-    <row r="291" spans="1:4">
+      <c r="E290">
+        <v>366</v>
+      </c>
+      <c r="F290">
+        <v>8</v>
+      </c>
+      <c r="G290">
+        <v>62</v>
+      </c>
+      <c r="H290">
+        <v>47</v>
+      </c>
+      <c r="I290">
+        <v>34</v>
+      </c>
+      <c r="J290">
+        <v>48</v>
+      </c>
+      <c r="K290">
+        <v>48</v>
+      </c>
+      <c r="L290">
+        <v>28</v>
+      </c>
+      <c r="M290">
+        <v>62</v>
+      </c>
+      <c r="N290">
+        <v>7</v>
+      </c>
+      <c r="O290">
+        <v>22</v>
+      </c>
+      <c r="P290">
+        <v>13</v>
+      </c>
+      <c r="Q290">
+        <v>9</v>
+      </c>
+      <c r="R290">
+        <f t="shared" si="4"/>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18">
       <c r="A291" t="s">
         <v>17</v>
       </c>
@@ -16864,8 +16950,51 @@
       <c r="D291">
         <v>29</v>
       </c>
-    </row>
-    <row r="292" spans="1:4">
+      <c r="E291">
+        <v>295</v>
+      </c>
+      <c r="F291">
+        <v>8</v>
+      </c>
+      <c r="G291">
+        <v>47</v>
+      </c>
+      <c r="H291">
+        <v>30</v>
+      </c>
+      <c r="I291">
+        <v>31</v>
+      </c>
+      <c r="J291">
+        <v>25</v>
+      </c>
+      <c r="K291">
+        <v>45</v>
+      </c>
+      <c r="L291">
+        <v>18</v>
+      </c>
+      <c r="M291">
+        <v>69</v>
+      </c>
+      <c r="N291">
+        <v>11</v>
+      </c>
+      <c r="O291">
+        <v>11</v>
+      </c>
+      <c r="P291">
+        <v>6</v>
+      </c>
+      <c r="Q291">
+        <v>2</v>
+      </c>
+      <c r="R291">
+        <f t="shared" si="4"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18">
       <c r="A292" t="s">
         <v>17</v>
       </c>
@@ -16878,8 +17007,51 @@
       <c r="D292">
         <v>30</v>
       </c>
-    </row>
-    <row r="293" spans="1:4">
+      <c r="E292">
+        <v>217</v>
+      </c>
+      <c r="F292">
+        <v>4</v>
+      </c>
+      <c r="G292">
+        <v>39</v>
+      </c>
+      <c r="H292">
+        <v>32</v>
+      </c>
+      <c r="I292">
+        <v>35</v>
+      </c>
+      <c r="J292">
+        <v>15</v>
+      </c>
+      <c r="K292">
+        <v>23</v>
+      </c>
+      <c r="L292">
+        <v>16</v>
+      </c>
+      <c r="M292">
+        <v>40</v>
+      </c>
+      <c r="N292">
+        <v>5</v>
+      </c>
+      <c r="O292">
+        <v>7</v>
+      </c>
+      <c r="P292">
+        <v>8</v>
+      </c>
+      <c r="Q292">
+        <v>7</v>
+      </c>
+      <c r="R292">
+        <f t="shared" si="4"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18">
       <c r="A293" t="s">
         <v>17</v>
       </c>
@@ -16893,7 +17065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:18">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -16907,7 +17079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:18">
       <c r="A295" t="s">
         <v>17</v>
       </c>
@@ -16921,7 +17093,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:18">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -16935,7 +17107,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:18">
       <c r="A297" t="s">
         <v>17</v>
       </c>
@@ -16949,7 +17121,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:18">
       <c r="A298" t="s">
         <v>17</v>
       </c>
@@ -16963,7 +17135,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:18">
       <c r="A299" t="s">
         <v>17</v>
       </c>
@@ -16977,7 +17149,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:18">
       <c r="A300" t="s">
         <v>17</v>
       </c>
@@ -16991,7 +17163,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:18">
       <c r="A301" t="s">
         <v>17</v>
       </c>
@@ -17005,7 +17177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:18">
       <c r="A302" t="s">
         <v>17</v>
       </c>
@@ -17019,7 +17191,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:18">
       <c r="A303" t="s">
         <v>17</v>
       </c>
@@ -17033,7 +17205,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:18">
       <c r="A304" t="s">
         <v>17</v>
       </c>

--- a/source-data/britain/britain_covid_source_latest.xlsx
+++ b/source-data/britain/britain_covid_source_latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D6C3A9-A045-574D-969F-EE67C421DA80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD129114-E2F9-424A-900B-22148167EE55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7340" yWindow="900" windowWidth="19720" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="1200" windowWidth="19720" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="britain_covid_source_latest" sheetId="1" r:id="rId1"/>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H270" workbookViewId="0">
-      <selection activeCell="N281" sqref="N281"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="H287" sqref="H287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15166,7 +15166,7 @@
         <v>0</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R292" si="4">SUM(E259,P259:Q259)</f>
+        <f t="shared" ref="R259:R295" si="4">SUM(E259,P259:Q259)</f>
         <v>0</v>
       </c>
     </row>
@@ -17064,6 +17064,49 @@
       <c r="D293">
         <v>31</v>
       </c>
+      <c r="E293">
+        <v>193</v>
+      </c>
+      <c r="F293">
+        <v>5</v>
+      </c>
+      <c r="G293">
+        <v>32</v>
+      </c>
+      <c r="H293">
+        <v>23</v>
+      </c>
+      <c r="I293">
+        <v>23</v>
+      </c>
+      <c r="J293">
+        <v>17</v>
+      </c>
+      <c r="K293">
+        <v>14</v>
+      </c>
+      <c r="L293">
+        <v>22</v>
+      </c>
+      <c r="M293">
+        <v>45</v>
+      </c>
+      <c r="N293">
+        <v>2</v>
+      </c>
+      <c r="O293">
+        <v>10</v>
+      </c>
+      <c r="P293">
+        <v>7</v>
+      </c>
+      <c r="Q293">
+        <v>1</v>
+      </c>
+      <c r="R293">
+        <f t="shared" si="4"/>
+        <v>201</v>
+      </c>
     </row>
     <row r="294" spans="1:18">
       <c r="A294" t="s">
@@ -17078,6 +17121,49 @@
       <c r="D294">
         <v>32</v>
       </c>
+      <c r="E294">
+        <v>152</v>
+      </c>
+      <c r="F294">
+        <v>5</v>
+      </c>
+      <c r="G294">
+        <v>33</v>
+      </c>
+      <c r="H294">
+        <v>16</v>
+      </c>
+      <c r="I294">
+        <v>16</v>
+      </c>
+      <c r="J294">
+        <v>13</v>
+      </c>
+      <c r="K294">
+        <v>11</v>
+      </c>
+      <c r="L294">
+        <v>8</v>
+      </c>
+      <c r="M294">
+        <v>24</v>
+      </c>
+      <c r="N294">
+        <v>2</v>
+      </c>
+      <c r="O294">
+        <v>24</v>
+      </c>
+      <c r="P294">
+        <v>5</v>
+      </c>
+      <c r="Q294">
+        <v>5</v>
+      </c>
+      <c r="R294">
+        <f t="shared" si="4"/>
+        <v>162</v>
+      </c>
     </row>
     <row r="295" spans="1:18">
       <c r="A295" t="s">
@@ -17091,6 +17177,49 @@
       </c>
       <c r="D295">
         <v>33</v>
+      </c>
+      <c r="E295">
+        <v>139</v>
+      </c>
+      <c r="F295">
+        <v>5</v>
+      </c>
+      <c r="G295">
+        <v>33</v>
+      </c>
+      <c r="H295">
+        <v>13</v>
+      </c>
+      <c r="I295">
+        <v>6</v>
+      </c>
+      <c r="J295">
+        <v>14</v>
+      </c>
+      <c r="K295">
+        <v>11</v>
+      </c>
+      <c r="L295">
+        <v>18</v>
+      </c>
+      <c r="M295">
+        <v>21</v>
+      </c>
+      <c r="N295">
+        <v>4</v>
+      </c>
+      <c r="O295">
+        <v>14</v>
+      </c>
+      <c r="P295">
+        <v>3</v>
+      </c>
+      <c r="Q295">
+        <v>4</v>
+      </c>
+      <c r="R295">
+        <f t="shared" si="4"/>
+        <v>146</v>
       </c>
     </row>
     <row r="296" spans="1:18">

--- a/source-data/britain/britain_covid_source_latest.xlsx
+++ b/source-data/britain/britain_covid_source_latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD129114-E2F9-424A-900B-22148167EE55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0075B2F5-4ACA-0D43-9CCC-D5E6E7028462}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1200" windowWidth="19720" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5740" yWindow="580" windowWidth="19720" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="britain_covid_source_latest" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -402,13 +402,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="H287" sqref="H287"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="I292" sqref="I292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>17</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>17</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:18">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:18">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>17</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:18">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:18">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:18">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:18">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:18">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>17</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>17</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>17</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>17</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>17</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>17</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>17</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:18">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>17</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:18">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>17</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>17</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>17</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:18">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>17</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:18">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>17</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:18">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:18">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>17</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>17</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:18">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>17</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>17</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>17</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>17</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>17</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:18">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>17</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:18">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>17</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:18">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:18">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>17</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:18">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>17</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:18">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>17</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:18">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>17</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:18">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>17</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:18">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>17</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:18">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>17</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:18">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>17</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:18">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>17</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:18">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>17</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:18">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>17</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:18">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>17</v>
       </c>
@@ -12092,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:18">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>17</v>
       </c>
@@ -12149,7 +12149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:18">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>17</v>
       </c>
@@ -12206,7 +12206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:18">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>17</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:18">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>17</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:18">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>17</v>
       </c>
@@ -12377,7 +12377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:18">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>17</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:18">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>17</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:18">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>17</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:18">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>17</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:18">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>17</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:18">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>17</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:18">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>17</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:18">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>17</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:18">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>17</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:18">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>17</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:18">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:18">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:18">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>17</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:18">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>17</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:18">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:18">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>17</v>
       </c>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:18">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -13346,7 +13346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:18">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>17</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:18">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>17</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:18">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>17</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:18">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>17</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:18">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>17</v>
       </c>
@@ -13631,7 +13631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:18">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>17</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:18">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>17</v>
       </c>
@@ -13745,7 +13745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:18">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>17</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:18">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>17</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:18">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:18">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:18">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>17</v>
       </c>
@@ -14030,7 +14030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:18">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>17</v>
       </c>
@@ -14087,7 +14087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:18">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:18">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:18">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>17</v>
       </c>
@@ -14258,7 +14258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:18">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>17</v>
       </c>
@@ -14315,7 +14315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:18">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -14372,7 +14372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:18">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:18">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>17</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:18">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:18">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>17</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:18">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:18">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -14714,7 +14714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:18">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:18">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:18">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>17</v>
       </c>
@@ -14885,7 +14885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:18">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>17</v>
       </c>
@@ -14942,7 +14942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:18">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>17</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:18">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>17</v>
       </c>
@@ -15056,7 +15056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:18">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>17</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:18">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -15166,11 +15166,11 @@
         <v>0</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R295" si="4">SUM(E259,P259:Q259)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:18">
+        <f t="shared" ref="R259:R298" si="4">SUM(E259,P259:Q259)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>17</v>
       </c>
@@ -15227,7 +15227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:18">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>17</v>
       </c>
@@ -15284,7 +15284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:18">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>17</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:18">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>17</v>
       </c>
@@ -15398,7 +15398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:18">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>17</v>
       </c>
@@ -15455,7 +15455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:18">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>17</v>
       </c>
@@ -15512,7 +15512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:18">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:18">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>17</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:18">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>17</v>
       </c>
@@ -15683,7 +15683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:18">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>17</v>
       </c>
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:18">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>17</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:18">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>17</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:18">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>17</v>
       </c>
@@ -15911,7 +15911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:18">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>17</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:18">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>17</v>
       </c>
@@ -16015,17 +16015,17 @@
         <v>2</v>
       </c>
       <c r="P274">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q274">
         <v>1</v>
       </c>
       <c r="R274">
         <f t="shared" si="4"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="275" spans="1:18">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>17</v>
       </c>
@@ -16082,7 +16082,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="276" spans="1:18">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>17</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>3812</v>
       </c>
     </row>
-    <row r="277" spans="1:18">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>17</v>
       </c>
@@ -16186,17 +16186,17 @@
         <v>304</v>
       </c>
       <c r="P277">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="Q277">
         <v>76</v>
       </c>
       <c r="R277">
         <f t="shared" si="4"/>
-        <v>6899</v>
-      </c>
-    </row>
-    <row r="278" spans="1:18">
+        <v>6898</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>17</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>9509</v>
       </c>
     </row>
-    <row r="279" spans="1:18">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>17</v>
       </c>
@@ -16300,17 +16300,17 @@
         <v>413</v>
       </c>
       <c r="P279">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="Q279">
         <v>128</v>
       </c>
       <c r="R279">
         <f t="shared" si="4"/>
-        <v>9024</v>
-      </c>
-    </row>
-    <row r="280" spans="1:18">
+        <v>9026</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>17</v>
       </c>
@@ -16357,17 +16357,17 @@
         <v>281</v>
       </c>
       <c r="P280">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Q280">
         <v>124</v>
       </c>
       <c r="R280">
         <f t="shared" si="4"/>
-        <v>6685</v>
-      </c>
-    </row>
-    <row r="281" spans="1:18">
+        <v>6686</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>17</v>
       </c>
@@ -16424,7 +16424,7 @@
         <v>4429</v>
       </c>
     </row>
-    <row r="282" spans="1:18">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>17</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="283" spans="1:18">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>17</v>
       </c>
@@ -16538,7 +16538,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="284" spans="1:18">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>17</v>
       </c>
@@ -16595,7 +16595,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="285" spans="1:18">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>17</v>
       </c>
@@ -16652,7 +16652,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="286" spans="1:18">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>17</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="287" spans="1:18">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>17</v>
       </c>
@@ -16766,7 +16766,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="288" spans="1:18">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>17</v>
       </c>
@@ -16823,7 +16823,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="289" spans="1:18">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>17</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="290" spans="1:18">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>17</v>
       </c>
@@ -16937,7 +16937,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="291" spans="1:18">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>17</v>
       </c>
@@ -16994,7 +16994,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="292" spans="1:18">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>17</v>
       </c>
@@ -17051,7 +17051,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="293" spans="1:18">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>17</v>
       </c>
@@ -17108,7 +17108,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="294" spans="1:18">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="295" spans="1:18">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>17</v>
       </c>
@@ -17222,7 +17222,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="296" spans="1:18">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -17235,8 +17235,51 @@
       <c r="D296">
         <v>34</v>
       </c>
-    </row>
-    <row r="297" spans="1:18">
+      <c r="E296">
+        <v>138</v>
+      </c>
+      <c r="F296">
+        <v>4</v>
+      </c>
+      <c r="G296">
+        <v>33</v>
+      </c>
+      <c r="H296">
+        <v>12</v>
+      </c>
+      <c r="I296">
+        <v>21</v>
+      </c>
+      <c r="J296">
+        <v>10</v>
+      </c>
+      <c r="K296">
+        <v>7</v>
+      </c>
+      <c r="L296">
+        <v>10</v>
+      </c>
+      <c r="M296">
+        <v>24</v>
+      </c>
+      <c r="N296">
+        <v>5</v>
+      </c>
+      <c r="O296">
+        <v>11</v>
+      </c>
+      <c r="P296">
+        <v>6</v>
+      </c>
+      <c r="Q296">
+        <v>6</v>
+      </c>
+      <c r="R296">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>17</v>
       </c>
@@ -17249,8 +17292,51 @@
       <c r="D297">
         <v>35</v>
       </c>
-    </row>
-    <row r="298" spans="1:18">
+      <c r="E297">
+        <v>101</v>
+      </c>
+      <c r="F297">
+        <v>2</v>
+      </c>
+      <c r="G297">
+        <v>34</v>
+      </c>
+      <c r="H297">
+        <v>13</v>
+      </c>
+      <c r="I297">
+        <v>6</v>
+      </c>
+      <c r="J297">
+        <v>5</v>
+      </c>
+      <c r="K297">
+        <v>16</v>
+      </c>
+      <c r="L297">
+        <v>4</v>
+      </c>
+      <c r="M297">
+        <v>11</v>
+      </c>
+      <c r="N297">
+        <v>6</v>
+      </c>
+      <c r="O297">
+        <v>3</v>
+      </c>
+      <c r="P297">
+        <v>7</v>
+      </c>
+      <c r="Q297">
+        <v>4</v>
+      </c>
+      <c r="R297">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>17</v>
       </c>
@@ -17263,8 +17349,51 @@
       <c r="D298">
         <v>36</v>
       </c>
-    </row>
-    <row r="299" spans="1:18">
+      <c r="E298">
+        <v>78</v>
+      </c>
+      <c r="F298">
+        <v>5</v>
+      </c>
+      <c r="G298">
+        <v>13</v>
+      </c>
+      <c r="H298">
+        <v>10</v>
+      </c>
+      <c r="I298">
+        <v>10</v>
+      </c>
+      <c r="J298">
+        <v>9</v>
+      </c>
+      <c r="K298">
+        <v>6</v>
+      </c>
+      <c r="L298">
+        <v>2</v>
+      </c>
+      <c r="M298">
+        <v>17</v>
+      </c>
+      <c r="N298">
+        <v>2</v>
+      </c>
+      <c r="O298">
+        <v>4</v>
+      </c>
+      <c r="P298">
+        <v>2</v>
+      </c>
+      <c r="Q298">
+        <v>3</v>
+      </c>
+      <c r="R298">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>17</v>
       </c>
@@ -17278,7 +17407,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="300" spans="1:18">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>17</v>
       </c>
@@ -17292,7 +17421,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="301" spans="1:18">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>17</v>
       </c>
@@ -17306,7 +17435,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="302" spans="1:18">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>17</v>
       </c>
@@ -17320,7 +17449,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="303" spans="1:18">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>17</v>
       </c>
@@ -17334,7 +17463,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="304" spans="1:18">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>17</v>
       </c>
@@ -17348,7 +17477,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>17</v>
       </c>
@@ -17362,7 +17491,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>17</v>
       </c>
@@ -17376,7 +17505,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>17</v>
       </c>
@@ -17390,7 +17519,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>17</v>
       </c>
@@ -17404,7 +17533,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>17</v>
       </c>
@@ -17418,7 +17547,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>17</v>
       </c>
@@ -17432,7 +17561,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>17</v>
       </c>
@@ -17446,7 +17575,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>17</v>
       </c>
@@ -17460,7 +17589,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>17</v>
       </c>
@@ -17474,7 +17603,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>17</v>
       </c>
@@ -17488,7 +17617,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>17</v>
       </c>

--- a/source-data/britain/britain_covid_source_latest.xlsx
+++ b/source-data/britain/britain_covid_source_latest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10914"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0075B2F5-4ACA-0D43-9CCC-D5E6E7028462}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24900BA2-AADC-0D4D-B818-CC62CF6759E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5740" yWindow="580" windowWidth="19720" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,13 +88,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General_)"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,15 +121,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{86C22B0D-7C11-694A-9AB0-AA01FE60BF2B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -402,13 +411,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="I292" sqref="I292"/>
+    <sheetView tabSelected="1" topLeftCell="G279" workbookViewId="0">
+      <selection activeCell="P290" sqref="P290"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -521,7 +530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -578,7 +587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -635,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -692,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -749,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -806,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -863,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -920,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -977,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1034,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1091,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1148,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1205,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1262,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1319,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1376,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1433,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1490,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1547,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1604,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1661,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1718,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1775,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1832,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1889,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1946,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -2003,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2060,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2117,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2174,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2231,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2288,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -2345,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2402,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2459,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2516,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2573,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -2630,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -2687,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -2744,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -2801,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -2858,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -2915,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -2972,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -3029,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -3086,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -3143,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3200,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -3257,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -3314,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -3371,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -3428,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -3485,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -3542,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -3599,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -3656,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -3713,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -3770,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -3827,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -3884,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -3941,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -3998,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -4055,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -4112,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -4169,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -4226,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -4283,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -4340,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -4397,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -4454,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -4511,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -4568,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -4625,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -4682,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
         <v>17</v>
       </c>
@@ -4739,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
         <v>17</v>
       </c>
@@ -4796,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
         <v>17</v>
       </c>
@@ -4853,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -4910,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -4967,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -5024,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -5081,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -5138,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -5195,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -5252,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -5309,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -5366,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -5423,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -5480,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -5537,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -5594,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18">
       <c r="A92" t="s">
         <v>17</v>
       </c>
@@ -5651,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -5708,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -5765,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -5822,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -5879,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -5936,7 +5945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -5993,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18">
       <c r="A99" t="s">
         <v>17</v>
       </c>
@@ -6050,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -6107,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -6164,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -6221,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -6278,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -6335,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -6392,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -6449,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -6506,7 +6515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -6563,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -6620,7 +6629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -6677,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -6734,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -6791,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -6848,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -6905,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -6962,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -7019,7 +7028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -7076,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -7133,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -7190,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -7247,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -7304,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -7361,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -7418,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -7475,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -7532,7 +7541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -7589,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -7646,7 +7655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -7703,7 +7712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -7760,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18">
       <c r="A130" t="s">
         <v>17</v>
       </c>
@@ -7817,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -7874,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -7931,7 +7940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -7988,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -8045,7 +8054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -8102,7 +8111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -8159,7 +8168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18">
       <c r="A137" t="s">
         <v>17</v>
       </c>
@@ -8216,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18">
       <c r="A138" t="s">
         <v>17</v>
       </c>
@@ -8273,7 +8282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18">
       <c r="A139" t="s">
         <v>17</v>
       </c>
@@ -8330,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -8387,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18">
       <c r="A141" t="s">
         <v>17</v>
       </c>
@@ -8444,7 +8453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -8501,7 +8510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -8558,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -8615,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -8672,7 +8681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -8729,7 +8738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -8786,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -8843,7 +8852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -8900,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -8957,7 +8966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -9014,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18">
       <c r="A152" t="s">
         <v>17</v>
       </c>
@@ -9071,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18">
       <c r="A153" t="s">
         <v>17</v>
       </c>
@@ -9128,7 +9137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18">
       <c r="A154" t="s">
         <v>17</v>
       </c>
@@ -9185,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18">
       <c r="A155" t="s">
         <v>17</v>
       </c>
@@ -9242,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18">
       <c r="A156" t="s">
         <v>17</v>
       </c>
@@ -9299,7 +9308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -9356,7 +9365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18">
       <c r="A158" t="s">
         <v>17</v>
       </c>
@@ -9413,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18">
       <c r="A159" t="s">
         <v>17</v>
       </c>
@@ -9470,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18">
       <c r="A160" t="s">
         <v>17</v>
       </c>
@@ -9527,7 +9536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18">
       <c r="A161" t="s">
         <v>17</v>
       </c>
@@ -9584,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18">
       <c r="A162" t="s">
         <v>17</v>
       </c>
@@ -9641,7 +9650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18">
       <c r="A163" t="s">
         <v>17</v>
       </c>
@@ -9698,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18">
       <c r="A164" t="s">
         <v>17</v>
       </c>
@@ -9755,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18">
       <c r="A165" t="s">
         <v>17</v>
       </c>
@@ -9812,7 +9821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -9869,7 +9878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18">
       <c r="A167" t="s">
         <v>17</v>
       </c>
@@ -9926,7 +9935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18">
       <c r="A168" t="s">
         <v>17</v>
       </c>
@@ -9983,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18">
       <c r="A169" t="s">
         <v>17</v>
       </c>
@@ -10040,7 +10049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18">
       <c r="A170" t="s">
         <v>17</v>
       </c>
@@ -10097,7 +10106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18">
       <c r="A171" t="s">
         <v>17</v>
       </c>
@@ -10154,7 +10163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18">
       <c r="A172" t="s">
         <v>17</v>
       </c>
@@ -10211,7 +10220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18">
       <c r="A173" t="s">
         <v>17</v>
       </c>
@@ -10268,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18">
       <c r="A174" t="s">
         <v>17</v>
       </c>
@@ -10325,7 +10334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18">
       <c r="A175" t="s">
         <v>17</v>
       </c>
@@ -10382,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18">
       <c r="A176" t="s">
         <v>17</v>
       </c>
@@ -10439,7 +10448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18">
       <c r="A177" t="s">
         <v>17</v>
       </c>
@@ -10496,7 +10505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18">
       <c r="A178" t="s">
         <v>17</v>
       </c>
@@ -10553,7 +10562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18">
       <c r="A179" t="s">
         <v>17</v>
       </c>
@@ -10610,7 +10619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -10667,7 +10676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18">
       <c r="A181" t="s">
         <v>17</v>
       </c>
@@ -10724,7 +10733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18">
       <c r="A182" t="s">
         <v>17</v>
       </c>
@@ -10781,7 +10790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18">
       <c r="A183" t="s">
         <v>17</v>
       </c>
@@ -10838,7 +10847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18">
       <c r="A184" t="s">
         <v>17</v>
       </c>
@@ -10895,7 +10904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -10952,7 +10961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -11009,7 +11018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18">
       <c r="A187" t="s">
         <v>17</v>
       </c>
@@ -11066,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18">
       <c r="A188" t="s">
         <v>17</v>
       </c>
@@ -11123,7 +11132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18">
       <c r="A189" t="s">
         <v>17</v>
       </c>
@@ -11180,7 +11189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18">
       <c r="A190" t="s">
         <v>17</v>
       </c>
@@ -11237,7 +11246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18">
       <c r="A191" t="s">
         <v>17</v>
       </c>
@@ -11294,7 +11303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18">
       <c r="A192" t="s">
         <v>17</v>
       </c>
@@ -11351,7 +11360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -11408,7 +11417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18">
       <c r="A194" t="s">
         <v>17</v>
       </c>
@@ -11465,7 +11474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18">
       <c r="A195" t="s">
         <v>17</v>
       </c>
@@ -11522,7 +11531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18">
       <c r="A196" t="s">
         <v>17</v>
       </c>
@@ -11579,7 +11588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18">
       <c r="A197" t="s">
         <v>17</v>
       </c>
@@ -11636,7 +11645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18">
       <c r="A198" t="s">
         <v>17</v>
       </c>
@@ -11693,7 +11702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18">
       <c r="A199" t="s">
         <v>17</v>
       </c>
@@ -11750,7 +11759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18">
       <c r="A200" t="s">
         <v>17</v>
       </c>
@@ -11807,7 +11816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18">
       <c r="A201" t="s">
         <v>17</v>
       </c>
@@ -11864,7 +11873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18">
       <c r="A202" t="s">
         <v>17</v>
       </c>
@@ -11921,7 +11930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18">
       <c r="A203" t="s">
         <v>17</v>
       </c>
@@ -11978,7 +11987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18">
       <c r="A204" t="s">
         <v>17</v>
       </c>
@@ -12035,7 +12044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18">
       <c r="A205" t="s">
         <v>17</v>
       </c>
@@ -12092,7 +12101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18">
       <c r="A206" t="s">
         <v>17</v>
       </c>
@@ -12149,7 +12158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18">
       <c r="A207" t="s">
         <v>17</v>
       </c>
@@ -12206,7 +12215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18">
       <c r="A208" t="s">
         <v>17</v>
       </c>
@@ -12263,7 +12272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18">
       <c r="A209" t="s">
         <v>17</v>
       </c>
@@ -12320,7 +12329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18">
       <c r="A210" t="s">
         <v>17</v>
       </c>
@@ -12377,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18">
       <c r="A211" t="s">
         <v>17</v>
       </c>
@@ -12434,7 +12443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18">
       <c r="A212" t="s">
         <v>17</v>
       </c>
@@ -12491,7 +12500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18">
       <c r="A213" t="s">
         <v>17</v>
       </c>
@@ -12548,7 +12557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18">
       <c r="A214" t="s">
         <v>17</v>
       </c>
@@ -12605,7 +12614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18">
       <c r="A215" t="s">
         <v>17</v>
       </c>
@@ -12662,7 +12671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18">
       <c r="A216" t="s">
         <v>17</v>
       </c>
@@ -12719,7 +12728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18">
       <c r="A217" t="s">
         <v>17</v>
       </c>
@@ -12776,7 +12785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18">
       <c r="A218" t="s">
         <v>17</v>
       </c>
@@ -12833,7 +12842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18">
       <c r="A219" t="s">
         <v>17</v>
       </c>
@@ -12890,7 +12899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18">
       <c r="A220" t="s">
         <v>17</v>
       </c>
@@ -12947,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -13004,7 +13013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18">
       <c r="A222" t="s">
         <v>17</v>
       </c>
@@ -13061,7 +13070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:18">
       <c r="A223" t="s">
         <v>17</v>
       </c>
@@ -13118,7 +13127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18">
       <c r="A224" t="s">
         <v>17</v>
       </c>
@@ -13175,7 +13184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18">
       <c r="A225" t="s">
         <v>17</v>
       </c>
@@ -13232,7 +13241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18">
       <c r="A226" t="s">
         <v>17</v>
       </c>
@@ -13289,7 +13298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18">
       <c r="A227" t="s">
         <v>17</v>
       </c>
@@ -13346,7 +13355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18">
       <c r="A228" t="s">
         <v>17</v>
       </c>
@@ -13403,7 +13412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18">
       <c r="A229" t="s">
         <v>17</v>
       </c>
@@ -13460,7 +13469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18">
       <c r="A230" t="s">
         <v>17</v>
       </c>
@@ -13517,7 +13526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:18">
       <c r="A231" t="s">
         <v>17</v>
       </c>
@@ -13574,7 +13583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18">
       <c r="A232" t="s">
         <v>17</v>
       </c>
@@ -13631,7 +13640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18">
       <c r="A233" t="s">
         <v>17</v>
       </c>
@@ -13688,7 +13697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18">
       <c r="A234" t="s">
         <v>17</v>
       </c>
@@ -13745,7 +13754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18">
       <c r="A235" t="s">
         <v>17</v>
       </c>
@@ -13802,7 +13811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18">
       <c r="A236" t="s">
         <v>17</v>
       </c>
@@ -13859,7 +13868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -13916,7 +13925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -13973,7 +13982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18">
       <c r="A239" t="s">
         <v>17</v>
       </c>
@@ -14030,7 +14039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18">
       <c r="A240" t="s">
         <v>17</v>
       </c>
@@ -14087,7 +14096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -14144,7 +14153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -14201,7 +14210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:18">
       <c r="A243" t="s">
         <v>17</v>
       </c>
@@ -14258,7 +14267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:18">
       <c r="A244" t="s">
         <v>17</v>
       </c>
@@ -14315,7 +14324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -14372,7 +14381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -14429,7 +14438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:18">
       <c r="A247" t="s">
         <v>17</v>
       </c>
@@ -14486,7 +14495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:18">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -14543,7 +14552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:18">
       <c r="A249" t="s">
         <v>17</v>
       </c>
@@ -14600,7 +14609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:18">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -14657,7 +14666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:18">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -14714,7 +14723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:18">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -14771,7 +14780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:18">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -14828,7 +14837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:18">
       <c r="A254" t="s">
         <v>17</v>
       </c>
@@ -14885,7 +14894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:18">
       <c r="A255" t="s">
         <v>17</v>
       </c>
@@ -14942,7 +14951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:18">
       <c r="A256" t="s">
         <v>17</v>
       </c>
@@ -14999,7 +15008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:18">
       <c r="A257" t="s">
         <v>17</v>
       </c>
@@ -15056,7 +15065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:18">
       <c r="A258" t="s">
         <v>17</v>
       </c>
@@ -15113,7 +15122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:18">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -15166,11 +15175,11 @@
         <v>0</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R298" si="4">SUM(E259,P259:Q259)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.2">
+        <f t="shared" ref="R259:R303" si="4">SUM(E259,P259:Q259)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18">
       <c r="A260" t="s">
         <v>17</v>
       </c>
@@ -15227,7 +15236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:18">
       <c r="A261" t="s">
         <v>17</v>
       </c>
@@ -15284,7 +15293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:18">
       <c r="A262" t="s">
         <v>17</v>
       </c>
@@ -15341,7 +15350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:18">
       <c r="A263" t="s">
         <v>17</v>
       </c>
@@ -15398,7 +15407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:18">
       <c r="A264" t="s">
         <v>17</v>
       </c>
@@ -15455,7 +15464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:18">
       <c r="A265" t="s">
         <v>17</v>
       </c>
@@ -15512,7 +15521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:18">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -15569,7 +15578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:18">
       <c r="A267" t="s">
         <v>17</v>
       </c>
@@ -15626,7 +15635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:18">
       <c r="A268" t="s">
         <v>17</v>
       </c>
@@ -15683,7 +15692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:18">
       <c r="A269" t="s">
         <v>17</v>
       </c>
@@ -15740,7 +15749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:18">
       <c r="A270" t="s">
         <v>17</v>
       </c>
@@ -15797,7 +15806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:18">
       <c r="A271" t="s">
         <v>17</v>
       </c>
@@ -15854,7 +15863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:18">
       <c r="A272" t="s">
         <v>17</v>
       </c>
@@ -15911,7 +15920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:18">
       <c r="A273" t="s">
         <v>17</v>
       </c>
@@ -15968,7 +15977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:18">
       <c r="A274" t="s">
         <v>17</v>
       </c>
@@ -16025,7 +16034,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:18">
       <c r="A275" t="s">
         <v>17</v>
       </c>
@@ -16082,7 +16091,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:18">
       <c r="A276" t="s">
         <v>17</v>
       </c>
@@ -16139,7 +16148,7 @@
         <v>3812</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:18">
       <c r="A277" t="s">
         <v>17</v>
       </c>
@@ -16196,7 +16205,7 @@
         <v>6898</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:18">
       <c r="A278" t="s">
         <v>17</v>
       </c>
@@ -16253,7 +16262,7 @@
         <v>9509</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:18">
       <c r="A279" t="s">
         <v>17</v>
       </c>
@@ -16310,7 +16319,7 @@
         <v>9026</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:18">
       <c r="A280" t="s">
         <v>17</v>
       </c>
@@ -16367,7 +16376,7 @@
         <v>6686</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:18">
       <c r="A281" t="s">
         <v>17</v>
       </c>
@@ -16424,7 +16433,7 @@
         <v>4429</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:18">
       <c r="A282" t="s">
         <v>17</v>
       </c>
@@ -16481,7 +16490,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:18">
       <c r="A283" t="s">
         <v>17</v>
       </c>
@@ -16538,7 +16547,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:18">
       <c r="A284" t="s">
         <v>17</v>
       </c>
@@ -16595,7 +16604,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:18">
       <c r="A285" t="s">
         <v>17</v>
       </c>
@@ -16652,7 +16661,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:18">
       <c r="A286" t="s">
         <v>17</v>
       </c>
@@ -16709,7 +16718,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:18">
       <c r="A287" t="s">
         <v>17</v>
       </c>
@@ -16766,7 +16775,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:18">
       <c r="A288" t="s">
         <v>17</v>
       </c>
@@ -16823,7 +16832,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:18">
       <c r="A289" t="s">
         <v>17</v>
       </c>
@@ -16880,7 +16889,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:18">
       <c r="A290" t="s">
         <v>17</v>
       </c>
@@ -16937,7 +16946,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:18">
       <c r="A291" t="s">
         <v>17</v>
       </c>
@@ -16994,7 +17003,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:18">
       <c r="A292" t="s">
         <v>17</v>
       </c>
@@ -17051,7 +17060,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:18">
       <c r="A293" t="s">
         <v>17</v>
       </c>
@@ -17108,7 +17117,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:18">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -17165,7 +17174,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:18">
       <c r="A295" t="s">
         <v>17</v>
       </c>
@@ -17222,7 +17231,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:18">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -17279,7 +17288,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:18">
       <c r="A297" t="s">
         <v>17</v>
       </c>
@@ -17336,7 +17345,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:18">
       <c r="A298" t="s">
         <v>17</v>
       </c>
@@ -17393,7 +17402,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:18">
       <c r="A299" t="s">
         <v>17</v>
       </c>
@@ -17406,8 +17415,51 @@
       <c r="D299">
         <v>37</v>
       </c>
-    </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E299">
+        <v>99</v>
+      </c>
+      <c r="F299">
+        <v>3</v>
+      </c>
+      <c r="G299">
+        <v>30</v>
+      </c>
+      <c r="H299">
+        <v>14</v>
+      </c>
+      <c r="I299">
+        <v>10</v>
+      </c>
+      <c r="J299">
+        <v>7</v>
+      </c>
+      <c r="K299">
+        <v>8</v>
+      </c>
+      <c r="L299">
+        <v>6</v>
+      </c>
+      <c r="M299">
+        <v>12</v>
+      </c>
+      <c r="N299">
+        <v>7</v>
+      </c>
+      <c r="O299">
+        <v>1</v>
+      </c>
+      <c r="P299">
+        <v>5</v>
+      </c>
+      <c r="Q299">
+        <v>7</v>
+      </c>
+      <c r="R299">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18">
       <c r="A300" t="s">
         <v>17</v>
       </c>
@@ -17420,8 +17472,51 @@
       <c r="D300">
         <v>38</v>
       </c>
-    </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E300">
+        <v>139</v>
+      </c>
+      <c r="F300">
+        <v>8</v>
+      </c>
+      <c r="G300">
+        <v>39</v>
+      </c>
+      <c r="H300">
+        <v>21</v>
+      </c>
+      <c r="I300">
+        <v>14</v>
+      </c>
+      <c r="J300">
+        <v>15</v>
+      </c>
+      <c r="K300">
+        <v>8</v>
+      </c>
+      <c r="L300">
+        <v>13</v>
+      </c>
+      <c r="M300">
+        <v>11</v>
+      </c>
+      <c r="N300">
+        <v>5</v>
+      </c>
+      <c r="O300">
+        <v>5</v>
+      </c>
+      <c r="P300">
+        <v>11</v>
+      </c>
+      <c r="Q300">
+        <v>8</v>
+      </c>
+      <c r="R300">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18">
       <c r="A301" t="s">
         <v>17</v>
       </c>
@@ -17434,8 +17529,51 @@
       <c r="D301">
         <v>39</v>
       </c>
-    </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E301">
+        <v>215</v>
+      </c>
+      <c r="F301">
+        <v>13</v>
+      </c>
+      <c r="G301">
+        <v>60</v>
+      </c>
+      <c r="H301">
+        <v>29</v>
+      </c>
+      <c r="I301">
+        <v>11</v>
+      </c>
+      <c r="J301">
+        <v>33</v>
+      </c>
+      <c r="K301">
+        <v>10</v>
+      </c>
+      <c r="L301">
+        <v>23</v>
+      </c>
+      <c r="M301">
+        <v>16</v>
+      </c>
+      <c r="N301">
+        <v>8</v>
+      </c>
+      <c r="O301">
+        <v>12</v>
+      </c>
+      <c r="P301">
+        <v>10</v>
+      </c>
+      <c r="Q301">
+        <v>9</v>
+      </c>
+      <c r="R301">
+        <f t="shared" si="4"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18">
       <c r="A302" t="s">
         <v>17</v>
       </c>
@@ -17448,8 +17586,51 @@
       <c r="D302">
         <v>40</v>
       </c>
-    </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E302">
+        <v>321</v>
+      </c>
+      <c r="F302">
+        <v>40</v>
+      </c>
+      <c r="G302">
+        <v>106</v>
+      </c>
+      <c r="H302">
+        <v>30</v>
+      </c>
+      <c r="I302">
+        <v>15</v>
+      </c>
+      <c r="J302">
+        <v>31</v>
+      </c>
+      <c r="K302">
+        <v>14</v>
+      </c>
+      <c r="L302">
+        <v>31</v>
+      </c>
+      <c r="M302">
+        <v>26</v>
+      </c>
+      <c r="N302">
+        <v>3</v>
+      </c>
+      <c r="O302">
+        <v>25</v>
+      </c>
+      <c r="P302">
+        <v>20</v>
+      </c>
+      <c r="Q302">
+        <v>2</v>
+      </c>
+      <c r="R302">
+        <f t="shared" si="4"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18">
       <c r="A303" t="s">
         <v>17</v>
       </c>
@@ -17462,8 +17643,51 @@
       <c r="D303">
         <v>41</v>
       </c>
-    </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E303">
+        <v>438</v>
+      </c>
+      <c r="F303">
+        <v>60</v>
+      </c>
+      <c r="G303">
+        <v>153</v>
+      </c>
+      <c r="H303">
+        <v>52</v>
+      </c>
+      <c r="I303">
+        <v>21</v>
+      </c>
+      <c r="J303">
+        <v>43</v>
+      </c>
+      <c r="K303">
+        <v>11</v>
+      </c>
+      <c r="L303">
+        <v>34</v>
+      </c>
+      <c r="M303">
+        <v>21</v>
+      </c>
+      <c r="N303">
+        <v>6</v>
+      </c>
+      <c r="O303">
+        <v>37</v>
+      </c>
+      <c r="P303">
+        <v>25</v>
+      </c>
+      <c r="Q303">
+        <v>11</v>
+      </c>
+      <c r="R303">
+        <f t="shared" si="4"/>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18">
       <c r="A304" t="s">
         <v>17</v>
       </c>
@@ -17477,7 +17701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>17</v>
       </c>
@@ -17491,7 +17715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>17</v>
       </c>
@@ -17505,7 +17729,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>17</v>
       </c>
@@ -17519,7 +17743,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>17</v>
       </c>
@@ -17533,7 +17757,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>17</v>
       </c>
@@ -17547,7 +17771,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>17</v>
       </c>
@@ -17561,7 +17785,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>17</v>
       </c>
@@ -17575,7 +17799,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>17</v>
       </c>
@@ -17589,7 +17813,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>17</v>
       </c>
@@ -17603,7 +17827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>17</v>
       </c>
@@ -17617,7 +17841,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>17</v>
       </c>

--- a/source-data/britain/britain_covid_source_latest.xlsx
+++ b/source-data/britain/britain_covid_source_latest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24900BA2-AADC-0D4D-B818-CC62CF6759E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A538209-6AB3-F347-845B-77C6886093F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5740" yWindow="580" windowWidth="19720" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G279" workbookViewId="0">
-      <selection activeCell="P290" sqref="P290"/>
+    <sheetView tabSelected="1" topLeftCell="F294" workbookViewId="0">
+      <selection activeCell="P297" sqref="P297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15175,7 +15175,7 @@
         <v>0</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R303" si="4">SUM(E259,P259:Q259)</f>
+        <f t="shared" ref="R259:R308" si="4">SUM(E259,P259:Q259)</f>
         <v>0</v>
       </c>
     </row>
@@ -17700,8 +17700,51 @@
       <c r="D304">
         <v>42</v>
       </c>
-    </row>
-    <row r="305" spans="1:4">
+      <c r="E304">
+        <v>670</v>
+      </c>
+      <c r="F304">
+        <v>93</v>
+      </c>
+      <c r="G304">
+        <v>229</v>
+      </c>
+      <c r="H304">
+        <v>87</v>
+      </c>
+      <c r="I304">
+        <v>40</v>
+      </c>
+      <c r="J304">
+        <v>49</v>
+      </c>
+      <c r="K304">
+        <v>33</v>
+      </c>
+      <c r="L304">
+        <v>43</v>
+      </c>
+      <c r="M304">
+        <v>30</v>
+      </c>
+      <c r="N304">
+        <v>18</v>
+      </c>
+      <c r="O304">
+        <v>47</v>
+      </c>
+      <c r="P304">
+        <v>75</v>
+      </c>
+      <c r="Q304">
+        <v>17</v>
+      </c>
+      <c r="R304">
+        <f t="shared" si="4"/>
+        <v>762</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18">
       <c r="A305" t="s">
         <v>17</v>
       </c>
@@ -17714,8 +17757,51 @@
       <c r="D305">
         <v>43</v>
       </c>
-    </row>
-    <row r="306" spans="1:4">
+      <c r="E305">
+        <v>978</v>
+      </c>
+      <c r="F305">
+        <v>114</v>
+      </c>
+      <c r="G305">
+        <v>325</v>
+      </c>
+      <c r="H305">
+        <v>159</v>
+      </c>
+      <c r="I305">
+        <v>79</v>
+      </c>
+      <c r="J305">
+        <v>80</v>
+      </c>
+      <c r="K305">
+        <v>38</v>
+      </c>
+      <c r="L305">
+        <v>47</v>
+      </c>
+      <c r="M305">
+        <v>41</v>
+      </c>
+      <c r="N305">
+        <v>30</v>
+      </c>
+      <c r="O305">
+        <v>65</v>
+      </c>
+      <c r="P305">
+        <v>106</v>
+      </c>
+      <c r="Q305">
+        <v>42</v>
+      </c>
+      <c r="R305">
+        <f t="shared" si="4"/>
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18">
       <c r="A306" t="s">
         <v>17</v>
       </c>
@@ -17728,8 +17814,51 @@
       <c r="D306">
         <v>44</v>
       </c>
-    </row>
-    <row r="307" spans="1:4">
+      <c r="E306">
+        <v>1379</v>
+      </c>
+      <c r="F306">
+        <v>118</v>
+      </c>
+      <c r="G306">
+        <v>445</v>
+      </c>
+      <c r="H306">
+        <v>204</v>
+      </c>
+      <c r="I306">
+        <v>121</v>
+      </c>
+      <c r="J306">
+        <v>110</v>
+      </c>
+      <c r="K306">
+        <v>65</v>
+      </c>
+      <c r="L306">
+        <v>76</v>
+      </c>
+      <c r="M306">
+        <v>73</v>
+      </c>
+      <c r="N306">
+        <v>46</v>
+      </c>
+      <c r="O306">
+        <v>121</v>
+      </c>
+      <c r="P306">
+        <v>168</v>
+      </c>
+      <c r="Q306">
+        <v>51</v>
+      </c>
+      <c r="R306">
+        <f t="shared" si="4"/>
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18">
       <c r="A307" t="s">
         <v>17</v>
       </c>
@@ -17742,8 +17871,51 @@
       <c r="D307">
         <v>45</v>
       </c>
-    </row>
-    <row r="308" spans="1:4">
+      <c r="E307">
+        <v>1937</v>
+      </c>
+      <c r="F307">
+        <v>152</v>
+      </c>
+      <c r="G307">
+        <v>568</v>
+      </c>
+      <c r="H307">
+        <v>329</v>
+      </c>
+      <c r="I307">
+        <v>191</v>
+      </c>
+      <c r="J307">
+        <v>181</v>
+      </c>
+      <c r="K307">
+        <v>116</v>
+      </c>
+      <c r="L307">
+        <v>87</v>
+      </c>
+      <c r="M307">
+        <v>89</v>
+      </c>
+      <c r="N307">
+        <v>58</v>
+      </c>
+      <c r="O307">
+        <v>166</v>
+      </c>
+      <c r="P307">
+        <v>207</v>
+      </c>
+      <c r="Q307">
+        <v>82</v>
+      </c>
+      <c r="R307">
+        <f t="shared" si="4"/>
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18">
       <c r="A308" t="s">
         <v>17</v>
       </c>
@@ -17756,8 +17928,51 @@
       <c r="D308">
         <v>46</v>
       </c>
-    </row>
-    <row r="309" spans="1:4">
+      <c r="E308">
+        <v>2466</v>
+      </c>
+      <c r="F308">
+        <v>180</v>
+      </c>
+      <c r="G308">
+        <v>615</v>
+      </c>
+      <c r="H308">
+        <v>450</v>
+      </c>
+      <c r="I308">
+        <v>245</v>
+      </c>
+      <c r="J308">
+        <v>284</v>
+      </c>
+      <c r="K308">
+        <v>132</v>
+      </c>
+      <c r="L308">
+        <v>124</v>
+      </c>
+      <c r="M308">
+        <v>144</v>
+      </c>
+      <c r="N308">
+        <v>100</v>
+      </c>
+      <c r="O308">
+        <v>190</v>
+      </c>
+      <c r="P308">
+        <v>279</v>
+      </c>
+      <c r="Q308">
+        <v>96</v>
+      </c>
+      <c r="R308">
+        <f t="shared" si="4"/>
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18">
       <c r="A309" t="s">
         <v>17</v>
       </c>
@@ -17771,7 +17986,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:18">
       <c r="A310" t="s">
         <v>17</v>
       </c>
@@ -17785,7 +18000,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:18">
       <c r="A311" t="s">
         <v>17</v>
       </c>
@@ -17799,7 +18014,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:18">
       <c r="A312" t="s">
         <v>17</v>
       </c>
@@ -17813,7 +18028,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:18">
       <c r="A313" t="s">
         <v>17</v>
       </c>
@@ -17827,7 +18042,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:18">
       <c r="A314" t="s">
         <v>17</v>
       </c>
@@ -17841,7 +18056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:18">
       <c r="A315" t="s">
         <v>17</v>
       </c>

--- a/source-data/britain/britain_covid_source_latest.xlsx
+++ b/source-data/britain/britain_covid_source_latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A538209-6AB3-F347-845B-77C6886093F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F86991-07E0-6943-A113-7C87A59CF93C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="580" windowWidth="19720" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5740" yWindow="560" windowWidth="23060" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="britain_covid_source_latest" sheetId="1" r:id="rId1"/>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F294" workbookViewId="0">
-      <selection activeCell="P297" sqref="P297"/>
+    <sheetView tabSelected="1" topLeftCell="D295" workbookViewId="0">
+      <selection activeCell="P305" sqref="P305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15175,7 +15175,7 @@
         <v>0</v>
       </c>
       <c r="R259">
-        <f t="shared" ref="R259:R308" si="4">SUM(E259,P259:Q259)</f>
+        <f t="shared" ref="R259:R313" si="4">SUM(E259,P259:Q259)</f>
         <v>0</v>
       </c>
     </row>
@@ -17985,6 +17985,49 @@
       <c r="D309">
         <v>47</v>
       </c>
+      <c r="E309">
+        <v>2697</v>
+      </c>
+      <c r="F309">
+        <v>185</v>
+      </c>
+      <c r="G309">
+        <v>629</v>
+      </c>
+      <c r="H309">
+        <v>481</v>
+      </c>
+      <c r="I309">
+        <v>289</v>
+      </c>
+      <c r="J309">
+        <v>306</v>
+      </c>
+      <c r="K309">
+        <v>131</v>
+      </c>
+      <c r="L309">
+        <v>160</v>
+      </c>
+      <c r="M309">
+        <v>176</v>
+      </c>
+      <c r="N309">
+        <v>114</v>
+      </c>
+      <c r="O309">
+        <v>223</v>
+      </c>
+      <c r="P309">
+        <v>246</v>
+      </c>
+      <c r="Q309">
+        <v>100</v>
+      </c>
+      <c r="R309">
+        <f t="shared" si="4"/>
+        <v>3043</v>
+      </c>
     </row>
     <row r="310" spans="1:18">
       <c r="A310" t="s">
@@ -17999,6 +18042,49 @@
       <c r="D310">
         <v>48</v>
       </c>
+      <c r="E310">
+        <v>3040</v>
+      </c>
+      <c r="F310">
+        <v>220</v>
+      </c>
+      <c r="G310">
+        <v>546</v>
+      </c>
+      <c r="H310">
+        <v>537</v>
+      </c>
+      <c r="I310">
+        <v>361</v>
+      </c>
+      <c r="J310">
+        <v>361</v>
+      </c>
+      <c r="K310">
+        <v>155</v>
+      </c>
+      <c r="L310">
+        <v>190</v>
+      </c>
+      <c r="M310">
+        <v>256</v>
+      </c>
+      <c r="N310">
+        <v>194</v>
+      </c>
+      <c r="O310">
+        <v>218</v>
+      </c>
+      <c r="P310">
+        <v>252</v>
+      </c>
+      <c r="Q310">
+        <v>81</v>
+      </c>
+      <c r="R310">
+        <f t="shared" si="4"/>
+        <v>3373</v>
+      </c>
     </row>
     <row r="311" spans="1:18">
       <c r="A311" t="s">
@@ -18013,6 +18099,49 @@
       <c r="D311">
         <v>49</v>
       </c>
+      <c r="E311">
+        <v>2835</v>
+      </c>
+      <c r="F311">
+        <v>183</v>
+      </c>
+      <c r="G311">
+        <v>458</v>
+      </c>
+      <c r="H311">
+        <v>444</v>
+      </c>
+      <c r="I311">
+        <v>323</v>
+      </c>
+      <c r="J311">
+        <v>381</v>
+      </c>
+      <c r="K311">
+        <v>182</v>
+      </c>
+      <c r="L311">
+        <v>211</v>
+      </c>
+      <c r="M311">
+        <v>250</v>
+      </c>
+      <c r="N311">
+        <v>191</v>
+      </c>
+      <c r="O311">
+        <v>207</v>
+      </c>
+      <c r="P311">
+        <v>232</v>
+      </c>
+      <c r="Q311">
+        <v>98</v>
+      </c>
+      <c r="R311">
+        <f t="shared" si="4"/>
+        <v>3165</v>
+      </c>
     </row>
     <row r="312" spans="1:18">
       <c r="A312" t="s">
@@ -18027,6 +18156,49 @@
       <c r="D312">
         <v>50</v>
       </c>
+      <c r="E312">
+        <v>2756</v>
+      </c>
+      <c r="F312">
+        <v>147</v>
+      </c>
+      <c r="G312">
+        <v>426</v>
+      </c>
+      <c r="H312">
+        <v>390</v>
+      </c>
+      <c r="I312">
+        <v>334</v>
+      </c>
+      <c r="J312">
+        <v>376</v>
+      </c>
+      <c r="K312">
+        <v>201</v>
+      </c>
+      <c r="L312">
+        <v>200</v>
+      </c>
+      <c r="M312">
+        <v>294</v>
+      </c>
+      <c r="N312">
+        <v>162</v>
+      </c>
+      <c r="O312">
+        <v>223</v>
+      </c>
+      <c r="P312">
+        <v>226</v>
+      </c>
+      <c r="Q312">
+        <v>87</v>
+      </c>
+      <c r="R312">
+        <f t="shared" si="4"/>
+        <v>3069</v>
+      </c>
     </row>
     <row r="313" spans="1:18">
       <c r="A313" t="s">
@@ -18040,6 +18212,49 @@
       </c>
       <c r="D313">
         <v>51</v>
+      </c>
+      <c r="E313">
+        <v>2986</v>
+      </c>
+      <c r="F313">
+        <v>143</v>
+      </c>
+      <c r="G313">
+        <v>379</v>
+      </c>
+      <c r="H313">
+        <v>394</v>
+      </c>
+      <c r="I313">
+        <v>337</v>
+      </c>
+      <c r="J313">
+        <v>373</v>
+      </c>
+      <c r="K313">
+        <v>237</v>
+      </c>
+      <c r="L313">
+        <v>241</v>
+      </c>
+      <c r="M313">
+        <v>425</v>
+      </c>
+      <c r="N313">
+        <v>200</v>
+      </c>
+      <c r="O313">
+        <v>256</v>
+      </c>
+      <c r="P313">
+        <v>203</v>
+      </c>
+      <c r="Q313">
+        <v>82</v>
+      </c>
+      <c r="R313">
+        <f t="shared" si="4"/>
+        <v>3271</v>
       </c>
     </row>
     <row r="314" spans="1:18">

--- a/source-data/britain/britain_covid_source_latest.xlsx
+++ b/source-data/britain/britain_covid_source_latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE46207-8004-AB4E-97FA-96FFDEB0919D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF67851F-503C-074E-89C3-41D8FF4BD077}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5740" yWindow="540" windowWidth="23060" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="19">
   <si>
     <t>country</t>
   </si>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S316"/>
+  <dimension ref="A1:S318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="S267" sqref="S267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15956,7 +15956,7 @@
         <v>0</v>
       </c>
       <c r="S259">
-        <f t="shared" ref="S259:S316" si="4">SUM(F259,Q259:R259)</f>
+        <f t="shared" ref="S259:S317" si="4">SUM(F259,Q259:R259)</f>
         <v>0</v>
       </c>
     </row>
@@ -19316,7 +19316,7 @@
         <v>94</v>
       </c>
       <c r="S315">
-        <f t="shared" si="4"/>
+        <f>SUM(F315,Q315:R315)</f>
         <v>3425</v>
       </c>
     </row>
@@ -19370,14 +19370,134 @@
         <v>454</v>
       </c>
       <c r="Q316">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="R316">
         <v>145</v>
       </c>
       <c r="S316">
+        <f>SUM(F316,Q316:R316)</f>
+        <v>6594</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19">
+      <c r="A317" t="s">
+        <v>17</v>
+      </c>
+      <c r="B317" s="1">
+        <v>44205</v>
+      </c>
+      <c r="C317" s="1">
+        <v>44211</v>
+      </c>
+      <c r="D317" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E317">
+        <v>2</v>
+      </c>
+      <c r="F317">
+        <v>7245</v>
+      </c>
+      <c r="G317">
+        <v>249</v>
+      </c>
+      <c r="H317">
+        <v>731</v>
+      </c>
+      <c r="I317">
+        <v>394</v>
+      </c>
+      <c r="J317">
+        <v>500</v>
+      </c>
+      <c r="K317">
+        <v>716</v>
+      </c>
+      <c r="L317">
+        <v>1096</v>
+      </c>
+      <c r="M317">
+        <v>1272</v>
+      </c>
+      <c r="N317">
+        <v>1411</v>
+      </c>
+      <c r="O317">
+        <v>398</v>
+      </c>
+      <c r="P317">
+        <v>467</v>
+      </c>
+      <c r="Q317">
+        <v>373</v>
+      </c>
+      <c r="R317">
+        <v>153</v>
+      </c>
+      <c r="S317">
         <f t="shared" si="4"/>
-        <v>6593</v>
+        <v>7771</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19">
+      <c r="A318" t="s">
+        <v>17</v>
+      </c>
+      <c r="B318" s="1">
+        <v>44212</v>
+      </c>
+      <c r="C318" s="1">
+        <v>44218</v>
+      </c>
+      <c r="D318" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E318">
+        <v>3</v>
+      </c>
+      <c r="F318">
+        <v>8422</v>
+      </c>
+      <c r="G318">
+        <v>279</v>
+      </c>
+      <c r="H318">
+        <v>879</v>
+      </c>
+      <c r="I318">
+        <v>459</v>
+      </c>
+      <c r="J318">
+        <v>605</v>
+      </c>
+      <c r="K318">
+        <v>844</v>
+      </c>
+      <c r="L318">
+        <v>1216</v>
+      </c>
+      <c r="M318">
+        <v>1400</v>
+      </c>
+      <c r="N318">
+        <v>1734</v>
+      </c>
+      <c r="O318">
+        <v>540</v>
+      </c>
+      <c r="P318">
+        <v>447</v>
+      </c>
+      <c r="Q318">
+        <v>448</v>
+      </c>
+      <c r="R318">
+        <v>182</v>
+      </c>
+      <c r="S318">
+        <f>SUM(F318,Q318:R318)</f>
+        <v>9052</v>
       </c>
     </row>
   </sheetData>

--- a/source-data/britain/britain_covid_source_latest.xlsx
+++ b/source-data/britain/britain_covid_source_latest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF67851F-503C-074E-89C3-41D8FF4BD077}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2E507F-61F6-674D-BCDA-B74380EFA0B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5740" yWindow="540" windowWidth="23060" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="19">
   <si>
     <t>country</t>
   </si>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S318"/>
+  <dimension ref="A1:S322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="S267" sqref="S267"/>
+    <sheetView tabSelected="1" topLeftCell="F294" workbookViewId="0">
+      <selection activeCell="S313" sqref="S313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19490,14 +19490,254 @@
         <v>447</v>
       </c>
       <c r="Q318">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="R318">
         <v>182</v>
       </c>
       <c r="S318">
         <f>SUM(F318,Q318:R318)</f>
-        <v>9052</v>
+        <v>9056</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19">
+      <c r="A319" t="s">
+        <v>17</v>
+      </c>
+      <c r="B319" s="1">
+        <v>44219</v>
+      </c>
+      <c r="C319" s="1">
+        <v>44225</v>
+      </c>
+      <c r="D319" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E319">
+        <v>4</v>
+      </c>
+      <c r="F319">
+        <v>8433</v>
+      </c>
+      <c r="G319">
+        <v>269</v>
+      </c>
+      <c r="H319">
+        <v>910</v>
+      </c>
+      <c r="I319">
+        <v>462</v>
+      </c>
+      <c r="J319">
+        <v>610</v>
+      </c>
+      <c r="K319">
+        <v>870</v>
+      </c>
+      <c r="L319">
+        <v>1297</v>
+      </c>
+      <c r="M319">
+        <v>1265</v>
+      </c>
+      <c r="N319">
+        <v>1710</v>
+      </c>
+      <c r="O319">
+        <v>670</v>
+      </c>
+      <c r="P319">
+        <v>361</v>
+      </c>
+      <c r="Q319">
+        <v>443</v>
+      </c>
+      <c r="R319">
+        <v>137</v>
+      </c>
+      <c r="S319">
+        <f>SUM(F319,Q319:R319)</f>
+        <v>9013</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19">
+      <c r="A320" t="s">
+        <v>17</v>
+      </c>
+      <c r="B320" s="1">
+        <v>44226</v>
+      </c>
+      <c r="C320" s="1">
+        <v>44232</v>
+      </c>
+      <c r="D320" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E320">
+        <v>5</v>
+      </c>
+      <c r="F320">
+        <v>7320</v>
+      </c>
+      <c r="G320">
+        <v>258</v>
+      </c>
+      <c r="H320">
+        <v>870</v>
+      </c>
+      <c r="I320">
+        <v>385</v>
+      </c>
+      <c r="J320">
+        <v>564</v>
+      </c>
+      <c r="K320">
+        <v>824</v>
+      </c>
+      <c r="L320">
+        <v>1098</v>
+      </c>
+      <c r="M320">
+        <v>982</v>
+      </c>
+      <c r="N320">
+        <v>1415</v>
+      </c>
+      <c r="O320">
+        <v>594</v>
+      </c>
+      <c r="P320">
+        <v>314</v>
+      </c>
+      <c r="Q320">
+        <v>377</v>
+      </c>
+      <c r="R320">
+        <v>126</v>
+      </c>
+      <c r="S320">
+        <f>SUM(F320,Q320:R320)</f>
+        <v>7823</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19">
+      <c r="A321" t="s">
+        <v>17</v>
+      </c>
+      <c r="B321" s="1">
+        <v>44233</v>
+      </c>
+      <c r="C321" s="1">
+        <v>44239</v>
+      </c>
+      <c r="D321" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E321">
+        <v>6</v>
+      </c>
+      <c r="F321">
+        <v>5691</v>
+      </c>
+      <c r="G321">
+        <v>229</v>
+      </c>
+      <c r="H321">
+        <v>698</v>
+      </c>
+      <c r="I321">
+        <v>347</v>
+      </c>
+      <c r="J321">
+        <v>557</v>
+      </c>
+      <c r="K321">
+        <v>657</v>
+      </c>
+      <c r="L321">
+        <v>808</v>
+      </c>
+      <c r="M321">
+        <v>718</v>
+      </c>
+      <c r="N321">
+        <v>974</v>
+      </c>
+      <c r="O321">
+        <v>476</v>
+      </c>
+      <c r="P321">
+        <v>216</v>
+      </c>
+      <c r="Q321">
+        <v>325</v>
+      </c>
+      <c r="R321">
+        <v>99</v>
+      </c>
+      <c r="S321">
+        <f t="shared" ref="S321:S322" si="5">SUM(F321,Q321:R321)</f>
+        <v>6115</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19">
+      <c r="A322" t="s">
+        <v>17</v>
+      </c>
+      <c r="B322" s="1">
+        <v>44240</v>
+      </c>
+      <c r="C322" s="1">
+        <v>44246</v>
+      </c>
+      <c r="D322" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E322">
+        <v>7</v>
+      </c>
+      <c r="F322">
+        <v>4079</v>
+      </c>
+      <c r="G322">
+        <v>165</v>
+      </c>
+      <c r="H322">
+        <v>563</v>
+      </c>
+      <c r="I322">
+        <v>320</v>
+      </c>
+      <c r="J322">
+        <v>382</v>
+      </c>
+      <c r="K322">
+        <v>530</v>
+      </c>
+      <c r="L322">
+        <v>566</v>
+      </c>
+      <c r="M322">
+        <v>461</v>
+      </c>
+      <c r="N322">
+        <v>636</v>
+      </c>
+      <c r="O322">
+        <v>268</v>
+      </c>
+      <c r="P322">
+        <v>179</v>
+      </c>
+      <c r="Q322">
+        <v>291</v>
+      </c>
+      <c r="R322">
+        <v>78</v>
+      </c>
+      <c r="S322">
+        <f>SUM(F322,Q322:R322)</f>
+        <v>4448</v>
       </c>
     </row>
   </sheetData>

--- a/source-data/britain/britain_covid_source_latest.xlsx
+++ b/source-data/britain/britain_covid_source_latest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2E507F-61F6-674D-BCDA-B74380EFA0B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5FFA90-2C11-FF48-8262-A9DA0EFE936E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5740" yWindow="540" windowWidth="23060" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="19">
   <si>
     <t>country</t>
   </si>
@@ -413,10 +413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S322"/>
+  <dimension ref="A1:S328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F294" workbookViewId="0">
-      <selection activeCell="S313" sqref="S313"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S323" sqref="S323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19676,7 +19677,7 @@
         <v>99</v>
       </c>
       <c r="S321">
-        <f t="shared" ref="S321:S322" si="5">SUM(F321,Q321:R321)</f>
+        <f t="shared" ref="S321" si="5">SUM(F321,Q321:R321)</f>
         <v>6115</v>
       </c>
     </row>
@@ -19738,6 +19739,366 @@
       <c r="S322">
         <f>SUM(F322,Q322:R322)</f>
         <v>4448</v>
+      </c>
+    </row>
+    <row r="323" spans="1:19">
+      <c r="A323" t="s">
+        <v>17</v>
+      </c>
+      <c r="B323" s="1">
+        <v>44247</v>
+      </c>
+      <c r="C323" s="1">
+        <v>44253</v>
+      </c>
+      <c r="D323" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E323">
+        <v>8</v>
+      </c>
+      <c r="F323">
+        <v>2914</v>
+      </c>
+      <c r="G323">
+        <v>100</v>
+      </c>
+      <c r="H323">
+        <v>396</v>
+      </c>
+      <c r="I323">
+        <v>249</v>
+      </c>
+      <c r="J323">
+        <v>277</v>
+      </c>
+      <c r="K323">
+        <v>391</v>
+      </c>
+      <c r="L323">
+        <v>337</v>
+      </c>
+      <c r="M323">
+        <v>350</v>
+      </c>
+      <c r="N323">
+        <v>481</v>
+      </c>
+      <c r="O323">
+        <v>191</v>
+      </c>
+      <c r="P323">
+        <v>138</v>
+      </c>
+      <c r="Q323">
+        <v>230</v>
+      </c>
+      <c r="R323">
+        <v>55</v>
+      </c>
+      <c r="S323">
+        <f>SUM(F323,Q323:R323)</f>
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19">
+      <c r="A324" t="s">
+        <v>17</v>
+      </c>
+      <c r="B324" s="1">
+        <v>44254</v>
+      </c>
+      <c r="C324" s="1">
+        <v>44260</v>
+      </c>
+      <c r="D324" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E324">
+        <v>9</v>
+      </c>
+      <c r="F324">
+        <v>2105</v>
+      </c>
+      <c r="G324">
+        <v>86</v>
+      </c>
+      <c r="H324">
+        <v>274</v>
+      </c>
+      <c r="I324">
+        <v>187</v>
+      </c>
+      <c r="J324">
+        <v>234</v>
+      </c>
+      <c r="K324">
+        <v>245</v>
+      </c>
+      <c r="L324">
+        <v>277</v>
+      </c>
+      <c r="M324">
+        <v>226</v>
+      </c>
+      <c r="N324">
+        <v>328</v>
+      </c>
+      <c r="O324">
+        <v>137</v>
+      </c>
+      <c r="P324">
+        <v>103</v>
+      </c>
+      <c r="Q324">
+        <v>142</v>
+      </c>
+      <c r="R324">
+        <v>33</v>
+      </c>
+      <c r="S324">
+        <f t="shared" ref="S324:S328" si="6">SUM(F324,Q324:R324)</f>
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="325" spans="1:19">
+      <c r="A325" t="s">
+        <v>17</v>
+      </c>
+      <c r="B325" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C325" s="1">
+        <v>44267</v>
+      </c>
+      <c r="D325" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E325">
+        <v>10</v>
+      </c>
+      <c r="F325">
+        <v>1501</v>
+      </c>
+      <c r="G325">
+        <v>66</v>
+      </c>
+      <c r="H325">
+        <v>203</v>
+      </c>
+      <c r="I325">
+        <v>139</v>
+      </c>
+      <c r="J325">
+        <v>162</v>
+      </c>
+      <c r="K325">
+        <v>183</v>
+      </c>
+      <c r="L325">
+        <v>182</v>
+      </c>
+      <c r="M325">
+        <v>167</v>
+      </c>
+      <c r="N325">
+        <v>235</v>
+      </c>
+      <c r="O325">
+        <v>91</v>
+      </c>
+      <c r="P325">
+        <v>68</v>
+      </c>
+      <c r="Q325">
+        <v>104</v>
+      </c>
+      <c r="R325">
+        <v>32</v>
+      </c>
+      <c r="S325">
+        <f>SUM(F325,Q325:R325)</f>
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="326" spans="1:19">
+      <c r="A326" t="s">
+        <v>17</v>
+      </c>
+      <c r="B326" s="1">
+        <v>44268</v>
+      </c>
+      <c r="C326" s="1">
+        <v>44274</v>
+      </c>
+      <c r="D326" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E326">
+        <v>11</v>
+      </c>
+      <c r="F326">
+        <v>963</v>
+      </c>
+      <c r="G326">
+        <v>38</v>
+      </c>
+      <c r="H326">
+        <v>139</v>
+      </c>
+      <c r="I326">
+        <v>110</v>
+      </c>
+      <c r="J326">
+        <v>103</v>
+      </c>
+      <c r="K326">
+        <v>107</v>
+      </c>
+      <c r="L326">
+        <v>112</v>
+      </c>
+      <c r="M326">
+        <v>116</v>
+      </c>
+      <c r="N326">
+        <v>139</v>
+      </c>
+      <c r="O326">
+        <v>48</v>
+      </c>
+      <c r="P326">
+        <v>49</v>
+      </c>
+      <c r="Q326">
+        <v>66</v>
+      </c>
+      <c r="R326">
+        <v>15</v>
+      </c>
+      <c r="S326">
+        <f>SUM(F326,Q326:R326)</f>
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19">
+      <c r="A327" t="s">
+        <v>17</v>
+      </c>
+      <c r="B327" s="1">
+        <v>44275</v>
+      </c>
+      <c r="C327" s="1">
+        <v>44281</v>
+      </c>
+      <c r="D327" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E327">
+        <v>12</v>
+      </c>
+      <c r="F327">
+        <v>719</v>
+      </c>
+      <c r="G327">
+        <v>35</v>
+      </c>
+      <c r="H327">
+        <v>106</v>
+      </c>
+      <c r="I327">
+        <v>66</v>
+      </c>
+      <c r="J327">
+        <v>100</v>
+      </c>
+      <c r="K327">
+        <v>84</v>
+      </c>
+      <c r="L327">
+        <v>68</v>
+      </c>
+      <c r="M327">
+        <v>78</v>
+      </c>
+      <c r="N327">
+        <v>116</v>
+      </c>
+      <c r="O327">
+        <v>34</v>
+      </c>
+      <c r="P327">
+        <v>32</v>
+      </c>
+      <c r="Q327">
+        <v>62</v>
+      </c>
+      <c r="R327">
+        <v>19</v>
+      </c>
+      <c r="S327">
+        <f>SUM(F327,Q327:R327)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19">
+      <c r="A328" t="s">
+        <v>17</v>
+      </c>
+      <c r="B328" s="1">
+        <v>44282</v>
+      </c>
+      <c r="C328" s="1">
+        <v>44288</v>
+      </c>
+      <c r="D328" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E328">
+        <v>13</v>
+      </c>
+      <c r="F328">
+        <v>400</v>
+      </c>
+      <c r="G328">
+        <v>16</v>
+      </c>
+      <c r="H328">
+        <v>64</v>
+      </c>
+      <c r="I328">
+        <v>37</v>
+      </c>
+      <c r="J328">
+        <v>47</v>
+      </c>
+      <c r="K328">
+        <v>46</v>
+      </c>
+      <c r="L328">
+        <v>43</v>
+      </c>
+      <c r="M328">
+        <v>48</v>
+      </c>
+      <c r="N328">
+        <v>65</v>
+      </c>
+      <c r="O328">
+        <v>19</v>
+      </c>
+      <c r="P328">
+        <v>15</v>
+      </c>
+      <c r="Q328">
+        <v>38</v>
+      </c>
+      <c r="R328">
+        <v>12</v>
+      </c>
+      <c r="S328">
+        <f t="shared" ref="S328" si="7">SUM(F328,Q328:R328)</f>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/source-data/britain/britain_covid_source_latest.xlsx
+++ b/source-data/britain/britain_covid_source_latest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/britain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5FFA90-2C11-FF48-8262-A9DA0EFE936E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4079D3B3-C117-F340-938F-455C4C053B40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5740" yWindow="540" windowWidth="23060" windowHeight="15020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="19">
   <si>
     <t>country</t>
   </si>
@@ -413,11 +413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S328"/>
+  <dimension ref="A1:S332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S323" sqref="S323"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I327" sqref="I327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19857,7 +19857,7 @@
         <v>33</v>
       </c>
       <c r="S324">
-        <f t="shared" ref="S324:S328" si="6">SUM(F324,Q324:R324)</f>
+        <f t="shared" ref="S324" si="6">SUM(F324,Q324:R324)</f>
         <v>2280</v>
       </c>
     </row>
@@ -20097,8 +20097,248 @@
         <v>12</v>
       </c>
       <c r="S328">
-        <f t="shared" ref="S328" si="7">SUM(F328,Q328:R328)</f>
+        <f t="shared" ref="S328:S332" si="7">SUM(F328,Q328:R328)</f>
         <v>450</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19">
+      <c r="A329" t="s">
+        <v>17</v>
+      </c>
+      <c r="B329" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C329" s="1">
+        <v>44295</v>
+      </c>
+      <c r="D329" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E329">
+        <v>14</v>
+      </c>
+      <c r="F329">
+        <v>379</v>
+      </c>
+      <c r="G329">
+        <v>17</v>
+      </c>
+      <c r="H329">
+        <v>49</v>
+      </c>
+      <c r="I329">
+        <v>52</v>
+      </c>
+      <c r="J329">
+        <v>44</v>
+      </c>
+      <c r="K329">
+        <v>45</v>
+      </c>
+      <c r="L329">
+        <v>40</v>
+      </c>
+      <c r="M329">
+        <v>38</v>
+      </c>
+      <c r="N329">
+        <v>59</v>
+      </c>
+      <c r="O329">
+        <v>16</v>
+      </c>
+      <c r="P329">
+        <v>19</v>
+      </c>
+      <c r="Q329">
+        <v>34</v>
+      </c>
+      <c r="R329">
+        <v>9</v>
+      </c>
+      <c r="S329">
+        <f t="shared" si="7"/>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19">
+      <c r="A330" t="s">
+        <v>17</v>
+      </c>
+      <c r="B330" s="1">
+        <v>44296</v>
+      </c>
+      <c r="C330" s="1">
+        <v>44302</v>
+      </c>
+      <c r="D330" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E330">
+        <v>15</v>
+      </c>
+      <c r="F330">
+        <v>362</v>
+      </c>
+      <c r="G330">
+        <v>14</v>
+      </c>
+      <c r="H330">
+        <v>51</v>
+      </c>
+      <c r="I330">
+        <v>39</v>
+      </c>
+      <c r="J330">
+        <v>36</v>
+      </c>
+      <c r="K330">
+        <v>48</v>
+      </c>
+      <c r="L330">
+        <v>33</v>
+      </c>
+      <c r="M330">
+        <v>56</v>
+      </c>
+      <c r="N330">
+        <v>43</v>
+      </c>
+      <c r="O330">
+        <v>26</v>
+      </c>
+      <c r="P330">
+        <v>14</v>
+      </c>
+      <c r="Q330">
+        <v>24</v>
+      </c>
+      <c r="R330">
+        <v>16</v>
+      </c>
+      <c r="S330">
+        <f t="shared" si="7"/>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19">
+      <c r="A331" t="s">
+        <v>17</v>
+      </c>
+      <c r="B331" s="1">
+        <v>44303</v>
+      </c>
+      <c r="C331" s="1">
+        <v>44309</v>
+      </c>
+      <c r="D331" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E331">
+        <v>16</v>
+      </c>
+      <c r="F331">
+        <v>260</v>
+      </c>
+      <c r="G331">
+        <v>6</v>
+      </c>
+      <c r="H331">
+        <v>29</v>
+      </c>
+      <c r="I331">
+        <v>49</v>
+      </c>
+      <c r="J331">
+        <v>20</v>
+      </c>
+      <c r="K331">
+        <v>30</v>
+      </c>
+      <c r="L331">
+        <v>33</v>
+      </c>
+      <c r="M331">
+        <v>39</v>
+      </c>
+      <c r="N331">
+        <v>32</v>
+      </c>
+      <c r="O331">
+        <v>6</v>
+      </c>
+      <c r="P331">
+        <v>14</v>
+      </c>
+      <c r="Q331">
+        <v>23</v>
+      </c>
+      <c r="R331">
+        <v>7</v>
+      </c>
+      <c r="S331">
+        <f t="shared" si="7"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19">
+      <c r="A332" t="s">
+        <v>17</v>
+      </c>
+      <c r="B332" s="1">
+        <v>44310</v>
+      </c>
+      <c r="C332" s="1">
+        <v>44316</v>
+      </c>
+      <c r="D332" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E332">
+        <v>17</v>
+      </c>
+      <c r="F332">
+        <v>205</v>
+      </c>
+      <c r="G332">
+        <v>13</v>
+      </c>
+      <c r="H332">
+        <v>28</v>
+      </c>
+      <c r="I332">
+        <v>20</v>
+      </c>
+      <c r="J332">
+        <v>21</v>
+      </c>
+      <c r="K332">
+        <v>24</v>
+      </c>
+      <c r="L332">
+        <v>20</v>
+      </c>
+      <c r="M332">
+        <v>33</v>
+      </c>
+      <c r="N332">
+        <v>29</v>
+      </c>
+      <c r="O332">
+        <v>10</v>
+      </c>
+      <c r="P332">
+        <v>7</v>
+      </c>
+      <c r="Q332">
+        <v>19</v>
+      </c>
+      <c r="R332">
+        <v>8</v>
+      </c>
+      <c r="S332">
+        <f t="shared" si="7"/>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
